--- a/Claude Code Cheat Sheet.xlsx
+++ b/Claude Code Cheat Sheet.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ulgan\OneDrive\Belgeler\RAM\ai\Claude Code\Claude-Code-Cheat-Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3ba35486ae632ec4/Belgeler/RAM/ai/Claude Code/Claude-Code-Cheat-Sheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{628FD47B-47ED-41E7-B90C-1EE99F37B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{628FD47B-47ED-41E7-B90C-1EE99F37B549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CAB4802-0800-4486-9472-7A102DE66FF0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="4815" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2453,140 +2454,140 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2869,8 +2870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52:B53"/>
+    <sheetView topLeftCell="A255" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -2886,26 +2887,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
     </row>
     <row r="2" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="79" t="s">
+      <c r="A2" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="112"/>
+      <c r="G2" s="112"/>
     </row>
     <row r="3" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17" t="s">
@@ -2914,13 +2915,13 @@
       <c r="B3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="80" t="s">
+      <c r="C3" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
     </row>
     <row r="4" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -2929,13 +2930,13 @@
       <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="114" t="s">
         <v>395</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
+      <c r="D4" s="114"/>
+      <c r="E4" s="114"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="114"/>
     </row>
     <row r="5" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
@@ -2944,21 +2945,21 @@
       <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="114" t="s">
         <v>494</v>
       </c>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="114"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="114"/>
     </row>
     <row r="6" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="114" t="s">
         <v>493</v>
       </c>
-      <c r="D6" s="81"/>
+      <c r="D6" s="114"/>
       <c r="E6" s="67"/>
       <c r="F6" s="67"/>
       <c r="G6" s="67"/>
@@ -2970,21 +2971,21 @@
       <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="81" t="s">
+      <c r="C7" s="114" t="s">
         <v>495</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="81"/>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
     </row>
     <row r="8" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="114" t="s">
         <v>496</v>
       </c>
-      <c r="D8" s="81"/>
+      <c r="D8" s="114"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
       <c r="G8" s="67"/>
@@ -2996,21 +2997,21 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="81" t="s">
+      <c r="C9" s="114" t="s">
         <v>498</v>
       </c>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
     </row>
     <row r="10" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
-      <c r="C10" s="81" t="s">
+      <c r="C10" s="114" t="s">
         <v>497</v>
       </c>
-      <c r="D10" s="81"/>
+      <c r="D10" s="114"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
       <c r="G10" s="67"/>
@@ -3022,21 +3023,21 @@
       <c r="B11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="114" t="s">
         <v>499</v>
       </c>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="81"/>
+      <c r="D11" s="114"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="114"/>
     </row>
     <row r="12" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="3"/>
-      <c r="C12" s="81" t="s">
+      <c r="C12" s="114" t="s">
         <v>500</v>
       </c>
-      <c r="D12" s="81"/>
+      <c r="D12" s="114"/>
       <c r="E12" s="67"/>
       <c r="F12" s="67"/>
       <c r="G12" s="67"/>
@@ -3048,13 +3049,13 @@
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="81" t="s">
+      <c r="C13" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="81"/>
+      <c r="D13" s="114"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
     </row>
     <row r="14" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
@@ -3063,13 +3064,13 @@
       <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="114" t="s">
         <v>502</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
+      <c r="D14" s="114"/>
+      <c r="E14" s="114"/>
+      <c r="F14" s="114"/>
+      <c r="G14" s="114"/>
     </row>
     <row r="15" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
@@ -3094,15 +3095,15 @@
       <c r="G16" s="67"/>
     </row>
     <row r="17" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="82" t="s">
+      <c r="A17" s="101" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="82"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="82"/>
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
     </row>
     <row r="18" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
@@ -3111,13 +3112,13 @@
       <c r="B18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="82" t="s">
+      <c r="C18" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="101"/>
     </row>
     <row r="19" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -3126,13 +3127,13 @@
       <c r="B19" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C19" s="72" t="s">
+      <c r="C19" s="98" t="s">
         <v>505</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="72"/>
-      <c r="G19" s="72"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="98"/>
     </row>
     <row r="20" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
@@ -3163,13 +3164,13 @@
       <c r="B22" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="98" t="s">
         <v>508</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="98"/>
     </row>
     <row r="23" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
@@ -3198,11 +3199,11 @@
         <v>96</v>
       </c>
       <c r="B25" s="1"/>
-      <c r="C25" s="72"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="72"/>
-      <c r="G25" s="72"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="98"/>
+      <c r="G25" s="98"/>
     </row>
     <row r="26" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
@@ -3211,13 +3212,13 @@
       <c r="B26" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="98" t="s">
         <v>99</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="98"/>
+      <c r="G26" s="98"/>
     </row>
     <row r="27" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -3226,13 +3227,13 @@
       <c r="B27" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="72" t="s">
+      <c r="C27" s="98" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="98"/>
+      <c r="G27" s="98"/>
     </row>
     <row r="28" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
@@ -3241,13 +3242,13 @@
       <c r="B28" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="72"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="98"/>
+      <c r="G28" s="98"/>
     </row>
     <row r="29" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
@@ -3256,22 +3257,22 @@
       <c r="B29" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="98"/>
+      <c r="F29" s="98"/>
+      <c r="G29" s="98"/>
     </row>
     <row r="30" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="77" t="s">
+      <c r="A30" s="96" t="s">
         <v>108</v>
       </c>
-      <c r="B30" s="77"/>
-      <c r="C30" s="77"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
+      <c r="D30" s="96"/>
+      <c r="E30" s="96"/>
+      <c r="F30" s="96"/>
+      <c r="G30" s="96"/>
     </row>
     <row r="31" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="18" t="s">
@@ -3280,13 +3281,13 @@
       <c r="B31" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="78"/>
-      <c r="E31" s="78"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="78"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="97"/>
     </row>
     <row r="32" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
@@ -3295,22 +3296,22 @@
       <c r="B32" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C32" s="72" t="s">
+      <c r="C32" s="98" t="s">
         <v>510</v>
       </c>
-      <c r="D32" s="72"/>
-      <c r="E32" s="72"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="98"/>
+      <c r="F32" s="98"/>
+      <c r="G32" s="98"/>
     </row>
     <row r="33" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2"/>
       <c r="B33" s="3"/>
-      <c r="C33" s="72" t="s">
+      <c r="C33" s="98" t="s">
         <v>509</v>
       </c>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
     </row>
@@ -3321,13 +3322,13 @@
       <c r="B34" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C34" s="72" t="s">
+      <c r="C34" s="98" t="s">
         <v>511</v>
       </c>
-      <c r="D34" s="72"/>
-      <c r="E34" s="72"/>
-      <c r="F34" s="72"/>
-      <c r="G34" s="72"/>
+      <c r="D34" s="98"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="98"/>
+      <c r="G34" s="98"/>
     </row>
     <row r="35" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
@@ -3336,13 +3337,13 @@
       <c r="B35" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="98" t="s">
         <v>513</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
+      <c r="D35" s="98"/>
+      <c r="E35" s="98"/>
+      <c r="F35" s="98"/>
+      <c r="G35" s="98"/>
     </row>
     <row r="36" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
@@ -3362,21 +3363,21 @@
       <c r="B37" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="72" t="s">
+      <c r="C37" s="98" t="s">
         <v>515</v>
       </c>
-      <c r="D37" s="72"/>
-      <c r="E37" s="72"/>
-      <c r="F37" s="72"/>
-      <c r="G37" s="72"/>
+      <c r="D37" s="98"/>
+      <c r="E37" s="98"/>
+      <c r="F37" s="98"/>
+      <c r="G37" s="98"/>
     </row>
     <row r="38" spans="1:7" s="66" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="3"/>
-      <c r="C38" s="72" t="s">
+      <c r="C38" s="98" t="s">
         <v>514</v>
       </c>
-      <c r="D38" s="72"/>
+      <c r="D38" s="98"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -3388,24 +3389,24 @@
       <c r="B39" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="72" t="s">
+      <c r="C39" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="72"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="72"/>
-      <c r="G39" s="72"/>
+      <c r="D39" s="98"/>
+      <c r="E39" s="98"/>
+      <c r="F39" s="98"/>
+      <c r="G39" s="98"/>
     </row>
     <row r="40" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="77" t="s">
+      <c r="A40" s="96" t="s">
         <v>358</v>
       </c>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="77"/>
-      <c r="F40" s="77"/>
-      <c r="G40" s="77"/>
+      <c r="B40" s="96"/>
+      <c r="C40" s="96"/>
+      <c r="D40" s="96"/>
+      <c r="E40" s="96"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="96"/>
     </row>
     <row r="41" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="18" t="s">
@@ -3414,221 +3415,221 @@
       <c r="B41" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D41" s="78"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="78"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="97"/>
     </row>
     <row r="42" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="74" t="s">
+      <c r="A42" s="104" t="s">
         <v>334</v>
       </c>
-      <c r="B42" s="75" t="s">
+      <c r="B42" s="105" t="s">
         <v>335</v>
       </c>
-      <c r="C42" s="71" t="s">
+      <c r="C42" s="115" t="s">
         <v>336</v>
       </c>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
+      <c r="D42" s="115"/>
+      <c r="E42" s="115"/>
+      <c r="F42" s="115"/>
+      <c r="G42" s="115"/>
     </row>
     <row r="43" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="74"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="71" t="s">
+      <c r="A43" s="104"/>
+      <c r="B43" s="105"/>
+      <c r="C43" s="115" t="s">
         <v>337</v>
       </c>
-      <c r="D43" s="71"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
+      <c r="D43" s="115"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="115"/>
+      <c r="G43" s="115"/>
     </row>
     <row r="44" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="74" t="s">
+      <c r="A44" s="104" t="s">
         <v>338</v>
       </c>
-      <c r="B44" s="75" t="s">
+      <c r="B44" s="105" t="s">
         <v>339</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="115" t="s">
         <v>340</v>
       </c>
-      <c r="D44" s="71"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
+      <c r="D44" s="115"/>
+      <c r="E44" s="115"/>
+      <c r="F44" s="115"/>
+      <c r="G44" s="115"/>
     </row>
     <row r="45" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="74"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="71" t="s">
+      <c r="A45" s="104"/>
+      <c r="B45" s="105"/>
+      <c r="C45" s="115" t="s">
         <v>341</v>
       </c>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
+      <c r="D45" s="115"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="115"/>
+      <c r="G45" s="115"/>
     </row>
     <row r="46" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="74" t="s">
+      <c r="A46" s="104" t="s">
         <v>342</v>
       </c>
-      <c r="B46" s="75" t="s">
+      <c r="B46" s="105" t="s">
         <v>343</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="115" t="s">
         <v>344</v>
       </c>
-      <c r="D46" s="71"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
+      <c r="D46" s="115"/>
+      <c r="E46" s="115"/>
+      <c r="F46" s="115"/>
+      <c r="G46" s="115"/>
     </row>
     <row r="47" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="74"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="71" t="s">
+      <c r="A47" s="104"/>
+      <c r="B47" s="105"/>
+      <c r="C47" s="115" t="s">
         <v>345</v>
       </c>
-      <c r="D47" s="71"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
+      <c r="D47" s="115"/>
+      <c r="E47" s="115"/>
+      <c r="F47" s="115"/>
+      <c r="G47" s="115"/>
     </row>
     <row r="48" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="74" t="s">
+      <c r="A48" s="104" t="s">
         <v>346</v>
       </c>
-      <c r="B48" s="75" t="s">
+      <c r="B48" s="105" t="s">
         <v>347</v>
       </c>
-      <c r="C48" s="71" t="s">
+      <c r="C48" s="115" t="s">
         <v>348</v>
       </c>
-      <c r="D48" s="71"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
+      <c r="D48" s="115"/>
+      <c r="E48" s="115"/>
+      <c r="F48" s="115"/>
+      <c r="G48" s="115"/>
     </row>
     <row r="49" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="74"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="71" t="s">
+      <c r="A49" s="104"/>
+      <c r="B49" s="105"/>
+      <c r="C49" s="115" t="s">
         <v>349</v>
       </c>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
+      <c r="D49" s="115"/>
+      <c r="E49" s="115"/>
+      <c r="F49" s="115"/>
+      <c r="G49" s="115"/>
     </row>
     <row r="50" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="74" t="s">
+      <c r="A50" s="104" t="s">
         <v>350</v>
       </c>
-      <c r="B50" s="75" t="s">
+      <c r="B50" s="105" t="s">
         <v>351</v>
       </c>
-      <c r="C50" s="71" t="s">
+      <c r="C50" s="115" t="s">
         <v>352</v>
       </c>
-      <c r="D50" s="71"/>
-      <c r="E50" s="71"/>
-      <c r="F50" s="71"/>
-      <c r="G50" s="71"/>
+      <c r="D50" s="115"/>
+      <c r="E50" s="115"/>
+      <c r="F50" s="115"/>
+      <c r="G50" s="115"/>
     </row>
     <row r="51" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="74"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="71" t="s">
+      <c r="A51" s="104"/>
+      <c r="B51" s="105"/>
+      <c r="C51" s="115" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="71"/>
-      <c r="E51" s="71"/>
-      <c r="F51" s="71"/>
-      <c r="G51" s="71"/>
+      <c r="D51" s="115"/>
+      <c r="E51" s="115"/>
+      <c r="F51" s="115"/>
+      <c r="G51" s="115"/>
     </row>
     <row r="52" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="74" t="s">
+      <c r="A52" s="104" t="s">
         <v>354</v>
       </c>
-      <c r="B52" s="75" t="s">
+      <c r="B52" s="105" t="s">
         <v>355</v>
       </c>
-      <c r="C52" s="71" t="s">
+      <c r="C52" s="115" t="s">
         <v>356</v>
       </c>
-      <c r="D52" s="71"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="71"/>
+      <c r="D52" s="115"/>
+      <c r="E52" s="115"/>
+      <c r="F52" s="115"/>
+      <c r="G52" s="115"/>
     </row>
     <row r="53" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="74"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="71" t="s">
+      <c r="A53" s="104"/>
+      <c r="B53" s="105"/>
+      <c r="C53" s="115" t="s">
         <v>357</v>
       </c>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
-      <c r="G53" s="71"/>
+      <c r="D53" s="115"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
     </row>
     <row r="54" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="70" t="s">
+      <c r="A54" s="120" t="s">
         <v>401</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="115" t="s">
         <v>403</v>
       </c>
-      <c r="C54" s="71" t="s">
+      <c r="C54" s="115" t="s">
         <v>405</v>
       </c>
-      <c r="D54" s="71"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="71"/>
+      <c r="D54" s="115"/>
+      <c r="E54" s="115"/>
+      <c r="F54" s="115"/>
+      <c r="G54" s="115"/>
     </row>
     <row r="55" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="70"/>
-      <c r="B55" s="71"/>
-      <c r="C55" s="73" t="s">
+      <c r="A55" s="120"/>
+      <c r="B55" s="115"/>
+      <c r="C55" s="121" t="s">
         <v>406</v>
       </c>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="121"/>
+      <c r="F55" s="121"/>
+      <c r="G55" s="121"/>
     </row>
     <row r="56" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="70" t="s">
+      <c r="A56" s="120" t="s">
         <v>402</v>
       </c>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="115" t="s">
         <v>404</v>
       </c>
-      <c r="C56" s="73" t="s">
+      <c r="C56" s="121" t="s">
         <v>407</v>
       </c>
-      <c r="D56" s="73"/>
-      <c r="E56" s="73"/>
-      <c r="F56" s="73"/>
-      <c r="G56" s="73"/>
+      <c r="D56" s="121"/>
+      <c r="E56" s="121"/>
+      <c r="F56" s="121"/>
+      <c r="G56" s="121"/>
     </row>
     <row r="57" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="70"/>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71" t="s">
+      <c r="A57" s="120"/>
+      <c r="B57" s="115"/>
+      <c r="C57" s="115" t="s">
         <v>408</v>
       </c>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="71"/>
+      <c r="D57" s="115"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
     </row>
     <row r="58" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="69"/>
@@ -3658,15 +3659,15 @@
       <c r="G60" s="68"/>
     </row>
     <row r="61" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="77" t="s">
+      <c r="A61" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="B61" s="77"/>
-      <c r="C61" s="77"/>
-      <c r="D61" s="77"/>
-      <c r="E61" s="77"/>
-      <c r="F61" s="77"/>
-      <c r="G61" s="77"/>
+      <c r="B61" s="96"/>
+      <c r="C61" s="96"/>
+      <c r="D61" s="96"/>
+      <c r="E61" s="96"/>
+      <c r="F61" s="96"/>
+      <c r="G61" s="96"/>
     </row>
     <row r="62" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="18" t="s">
@@ -3675,13 +3676,13 @@
       <c r="B62" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C62" s="78" t="s">
+      <c r="C62" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="78"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="78"/>
-      <c r="G62" s="78"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
     </row>
     <row r="63" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
@@ -3690,13 +3691,13 @@
       <c r="B63" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="72" t="s">
+      <c r="C63" s="98" t="s">
         <v>396</v>
       </c>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="72"/>
-      <c r="G63" s="72"/>
+      <c r="D63" s="98"/>
+      <c r="E63" s="98"/>
+      <c r="F63" s="98"/>
+      <c r="G63" s="98"/>
     </row>
     <row r="64" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
@@ -3705,13 +3706,13 @@
       <c r="B64" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="98" t="s">
         <v>228</v>
       </c>
-      <c r="D64" s="72"/>
-      <c r="E64" s="72"/>
-      <c r="F64" s="72"/>
-      <c r="G64" s="72"/>
+      <c r="D64" s="98"/>
+      <c r="E64" s="98"/>
+      <c r="F64" s="98"/>
+      <c r="G64" s="98"/>
     </row>
     <row r="65" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
@@ -3720,13 +3721,13 @@
       <c r="B65" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C65" s="72" t="s">
+      <c r="C65" s="98" t="s">
         <v>229</v>
       </c>
-      <c r="D65" s="72"/>
-      <c r="E65" s="72"/>
-      <c r="F65" s="72"/>
-      <c r="G65" s="72"/>
+      <c r="D65" s="98"/>
+      <c r="E65" s="98"/>
+      <c r="F65" s="98"/>
+      <c r="G65" s="98"/>
     </row>
     <row r="66" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
@@ -3735,13 +3736,13 @@
       <c r="B66" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="72" t="s">
+      <c r="C66" s="98" t="s">
         <v>230</v>
       </c>
-      <c r="D66" s="72"/>
-      <c r="E66" s="72"/>
-      <c r="F66" s="72"/>
-      <c r="G66" s="72"/>
+      <c r="D66" s="98"/>
+      <c r="E66" s="98"/>
+      <c r="F66" s="98"/>
+      <c r="G66" s="98"/>
     </row>
     <row r="67" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
@@ -3750,21 +3751,21 @@
       <c r="B67" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="72" t="s">
+      <c r="C67" s="98" t="s">
         <v>415</v>
       </c>
-      <c r="D67" s="72"/>
-      <c r="E67" s="72"/>
-      <c r="F67" s="72"/>
-      <c r="G67" s="72"/>
+      <c r="D67" s="98"/>
+      <c r="E67" s="98"/>
+      <c r="F67" s="98"/>
+      <c r="G67" s="98"/>
     </row>
     <row r="68" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="3"/>
-      <c r="C68" s="72" t="s">
+      <c r="C68" s="98" t="s">
         <v>414</v>
       </c>
-      <c r="D68" s="72"/>
+      <c r="D68" s="98"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -3772,10 +3773,10 @@
     <row r="69" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="3"/>
-      <c r="C69" s="72" t="s">
+      <c r="C69" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="D69" s="72"/>
+      <c r="D69" s="98"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -3808,15 +3809,15 @@
       <c r="G72" s="3"/>
     </row>
     <row r="73" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="82" t="s">
+      <c r="A73" s="101" t="s">
         <v>19</v>
       </c>
-      <c r="B73" s="82"/>
-      <c r="C73" s="82"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
+      <c r="B73" s="101"/>
+      <c r="C73" s="101"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="101"/>
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
     </row>
     <row r="74" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
@@ -3825,13 +3826,13 @@
       <c r="B74" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="80" t="s">
+      <c r="C74" s="113" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="80"/>
-      <c r="E74" s="80"/>
-      <c r="F74" s="80"/>
-      <c r="G74" s="80"/>
+      <c r="D74" s="113"/>
+      <c r="E74" s="113"/>
+      <c r="F74" s="113"/>
+      <c r="G74" s="113"/>
     </row>
     <row r="75" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
@@ -3840,21 +3841,21 @@
       <c r="B75" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="72" t="s">
+      <c r="C75" s="98" t="s">
         <v>517</v>
       </c>
-      <c r="D75" s="72"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="72"/>
+      <c r="D75" s="98"/>
+      <c r="E75" s="98"/>
+      <c r="F75" s="98"/>
+      <c r="G75" s="98"/>
     </row>
     <row r="76" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="3"/>
-      <c r="C76" s="72" t="s">
+      <c r="C76" s="98" t="s">
         <v>516</v>
       </c>
-      <c r="D76" s="72"/>
+      <c r="D76" s="98"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -3866,21 +3867,21 @@
       <c r="B77" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C77" s="72" t="s">
+      <c r="C77" s="98" t="s">
         <v>519</v>
       </c>
-      <c r="D77" s="72"/>
-      <c r="E77" s="72"/>
-      <c r="F77" s="72"/>
-      <c r="G77" s="72"/>
+      <c r="D77" s="98"/>
+      <c r="E77" s="98"/>
+      <c r="F77" s="98"/>
+      <c r="G77" s="98"/>
     </row>
     <row r="78" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
       <c r="B78" s="3"/>
-      <c r="C78" s="72" t="s">
+      <c r="C78" s="98" t="s">
         <v>518</v>
       </c>
-      <c r="D78" s="72"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -3892,21 +3893,21 @@
       <c r="B79" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C79" s="72" t="s">
+      <c r="C79" s="98" t="s">
         <v>521</v>
       </c>
-      <c r="D79" s="72"/>
-      <c r="E79" s="72"/>
-      <c r="F79" s="72"/>
-      <c r="G79" s="72"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="98"/>
     </row>
     <row r="80" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2"/>
       <c r="B80" s="3"/>
-      <c r="C80" s="72" t="s">
+      <c r="C80" s="98" t="s">
         <v>520</v>
       </c>
-      <c r="D80" s="72"/>
+      <c r="D80" s="98"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -3918,21 +3919,21 @@
       <c r="B81" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="72" t="s">
+      <c r="C81" s="98" t="s">
         <v>523</v>
       </c>
-      <c r="D81" s="72"/>
-      <c r="E81" s="72"/>
-      <c r="F81" s="72"/>
-      <c r="G81" s="72"/>
+      <c r="D81" s="98"/>
+      <c r="E81" s="98"/>
+      <c r="F81" s="98"/>
+      <c r="G81" s="98"/>
     </row>
     <row r="82" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
-      <c r="C82" s="72" t="s">
+      <c r="C82" s="98" t="s">
         <v>522</v>
       </c>
-      <c r="D82" s="72"/>
+      <c r="D82" s="98"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -3944,21 +3945,21 @@
       <c r="B83" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C83" s="72" t="s">
+      <c r="C83" s="98" t="s">
         <v>525</v>
       </c>
-      <c r="D83" s="72"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="72"/>
+      <c r="D83" s="98"/>
+      <c r="E83" s="98"/>
+      <c r="F83" s="98"/>
+      <c r="G83" s="98"/>
     </row>
     <row r="84" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2"/>
       <c r="B84" s="3"/>
-      <c r="C84" s="72" t="s">
+      <c r="C84" s="98" t="s">
         <v>524</v>
       </c>
-      <c r="D84" s="72"/>
+      <c r="D84" s="98"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -3970,21 +3971,21 @@
       <c r="B85" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C85" s="72" t="s">
+      <c r="C85" s="98" t="s">
         <v>527</v>
       </c>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
+      <c r="D85" s="98"/>
+      <c r="E85" s="98"/>
+      <c r="F85" s="98"/>
+      <c r="G85" s="98"/>
     </row>
     <row r="86" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="3"/>
-      <c r="C86" s="72" t="s">
+      <c r="C86" s="98" t="s">
         <v>526</v>
       </c>
-      <c r="D86" s="72"/>
+      <c r="D86" s="98"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -3996,13 +3997,13 @@
       <c r="B87" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C87" s="72" t="s">
+      <c r="C87" s="98" t="s">
         <v>529</v>
       </c>
-      <c r="D87" s="72"/>
-      <c r="E87" s="72"/>
-      <c r="F87" s="72"/>
-      <c r="G87" s="72"/>
+      <c r="D87" s="98"/>
+      <c r="E87" s="98"/>
+      <c r="F87" s="98"/>
+      <c r="G87" s="98"/>
     </row>
     <row r="88" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
@@ -4022,21 +4023,21 @@
       <c r="B89" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C89" s="72" t="s">
+      <c r="C89" s="98" t="s">
         <v>531</v>
       </c>
-      <c r="D89" s="72"/>
-      <c r="E89" s="72"/>
-      <c r="F89" s="72"/>
-      <c r="G89" s="72"/>
+      <c r="D89" s="98"/>
+      <c r="E89" s="98"/>
+      <c r="F89" s="98"/>
+      <c r="G89" s="98"/>
     </row>
     <row r="90" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2"/>
       <c r="B90" s="3"/>
-      <c r="C90" s="72" t="s">
+      <c r="C90" s="98" t="s">
         <v>530</v>
       </c>
-      <c r="D90" s="72"/>
+      <c r="D90" s="98"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -4048,21 +4049,21 @@
       <c r="B91" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C91" s="72" t="s">
+      <c r="C91" s="98" t="s">
         <v>533</v>
       </c>
-      <c r="D91" s="72"/>
-      <c r="E91" s="72"/>
-      <c r="F91" s="72"/>
-      <c r="G91" s="72"/>
+      <c r="D91" s="98"/>
+      <c r="E91" s="98"/>
+      <c r="F91" s="98"/>
+      <c r="G91" s="98"/>
     </row>
     <row r="92" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="B92" s="3"/>
-      <c r="C92" s="72" t="s">
+      <c r="C92" s="98" t="s">
         <v>532</v>
       </c>
-      <c r="D92" s="72"/>
+      <c r="D92" s="98"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -4074,21 +4075,21 @@
       <c r="B93" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C93" s="72" t="s">
+      <c r="C93" s="98" t="s">
         <v>535</v>
       </c>
-      <c r="D93" s="72"/>
-      <c r="E93" s="72"/>
-      <c r="F93" s="72"/>
-      <c r="G93" s="72"/>
+      <c r="D93" s="98"/>
+      <c r="E93" s="98"/>
+      <c r="F93" s="98"/>
+      <c r="G93" s="98"/>
     </row>
     <row r="94" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2"/>
       <c r="B94" s="3"/>
-      <c r="C94" s="72" t="s">
+      <c r="C94" s="98" t="s">
         <v>534</v>
       </c>
-      <c r="D94" s="72"/>
+      <c r="D94" s="98"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -4100,13 +4101,13 @@
       <c r="B95" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C95" s="72" t="s">
+      <c r="C95" s="98" t="s">
         <v>222</v>
       </c>
-      <c r="D95" s="72"/>
-      <c r="E95" s="72"/>
-      <c r="F95" s="72"/>
-      <c r="G95" s="72"/>
+      <c r="D95" s="98"/>
+      <c r="E95" s="98"/>
+      <c r="F95" s="98"/>
+      <c r="G95" s="98"/>
     </row>
     <row r="96" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="60" t="s">
@@ -4115,21 +4116,21 @@
       <c r="B96" s="61" t="s">
         <v>315</v>
       </c>
-      <c r="C96" s="71" t="s">
+      <c r="C96" s="115" t="s">
         <v>537</v>
       </c>
-      <c r="D96" s="71"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="71"/>
+      <c r="D96" s="115"/>
+      <c r="E96" s="115"/>
+      <c r="F96" s="115"/>
+      <c r="G96" s="115"/>
     </row>
     <row r="97" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="60"/>
       <c r="B97" s="61"/>
-      <c r="C97" s="71" t="s">
+      <c r="C97" s="115" t="s">
         <v>536</v>
       </c>
-      <c r="D97" s="71"/>
+      <c r="D97" s="115"/>
       <c r="E97" s="68"/>
       <c r="F97" s="68"/>
       <c r="G97" s="68"/>
@@ -4141,21 +4142,21 @@
       <c r="B98" s="61" t="s">
         <v>317</v>
       </c>
-      <c r="C98" s="71" t="s">
+      <c r="C98" s="115" t="s">
         <v>539</v>
       </c>
-      <c r="D98" s="71"/>
-      <c r="E98" s="71"/>
-      <c r="F98" s="71"/>
-      <c r="G98" s="71"/>
+      <c r="D98" s="115"/>
+      <c r="E98" s="115"/>
+      <c r="F98" s="115"/>
+      <c r="G98" s="115"/>
     </row>
     <row r="99" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="60"/>
       <c r="B99" s="61"/>
-      <c r="C99" s="71" t="s">
+      <c r="C99" s="115" t="s">
         <v>538</v>
       </c>
-      <c r="D99" s="71"/>
+      <c r="D99" s="115"/>
       <c r="E99" s="68"/>
       <c r="F99" s="68"/>
       <c r="G99" s="68"/>
@@ -4167,13 +4168,13 @@
       <c r="B100" s="61" t="s">
         <v>319</v>
       </c>
-      <c r="C100" s="71" t="s">
+      <c r="C100" s="115" t="s">
         <v>541</v>
       </c>
-      <c r="D100" s="71"/>
-      <c r="E100" s="71"/>
-      <c r="F100" s="71"/>
-      <c r="G100" s="71"/>
+      <c r="D100" s="115"/>
+      <c r="E100" s="115"/>
+      <c r="F100" s="115"/>
+      <c r="G100" s="115"/>
     </row>
     <row r="101" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="60"/>
@@ -4193,21 +4194,21 @@
       <c r="B102" s="61" t="s">
         <v>321</v>
       </c>
-      <c r="C102" s="71" t="s">
+      <c r="C102" s="115" t="s">
         <v>543</v>
       </c>
-      <c r="D102" s="71"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="71"/>
+      <c r="D102" s="115"/>
+      <c r="E102" s="115"/>
+      <c r="F102" s="115"/>
+      <c r="G102" s="115"/>
     </row>
     <row r="103" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="60"/>
       <c r="B103" s="61"/>
-      <c r="C103" s="71" t="s">
+      <c r="C103" s="115" t="s">
         <v>542</v>
       </c>
-      <c r="D103" s="71"/>
+      <c r="D103" s="115"/>
       <c r="E103" s="68"/>
       <c r="F103" s="68"/>
       <c r="G103" s="68"/>
@@ -4219,21 +4220,21 @@
       <c r="B104" s="61" t="s">
         <v>323</v>
       </c>
-      <c r="C104" s="71" t="s">
+      <c r="C104" s="115" t="s">
         <v>545</v>
       </c>
-      <c r="D104" s="71"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="71"/>
+      <c r="D104" s="115"/>
+      <c r="E104" s="115"/>
+      <c r="F104" s="115"/>
+      <c r="G104" s="115"/>
     </row>
     <row r="105" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="60"/>
       <c r="B105" s="61"/>
-      <c r="C105" s="71" t="s">
+      <c r="C105" s="115" t="s">
         <v>544</v>
       </c>
-      <c r="D105" s="71"/>
+      <c r="D105" s="115"/>
       <c r="E105" s="68"/>
       <c r="F105" s="68"/>
       <c r="G105" s="68"/>
@@ -4245,21 +4246,21 @@
       <c r="B106" s="61" t="s">
         <v>325</v>
       </c>
-      <c r="C106" s="71" t="s">
+      <c r="C106" s="115" t="s">
         <v>491</v>
       </c>
-      <c r="D106" s="71"/>
-      <c r="E106" s="71"/>
-      <c r="F106" s="71"/>
-      <c r="G106" s="71"/>
+      <c r="D106" s="115"/>
+      <c r="E106" s="115"/>
+      <c r="F106" s="115"/>
+      <c r="G106" s="115"/>
     </row>
     <row r="107" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="60"/>
       <c r="B107" s="61"/>
-      <c r="C107" s="71" t="s">
+      <c r="C107" s="115" t="s">
         <v>492</v>
       </c>
-      <c r="D107" s="71"/>
+      <c r="D107" s="115"/>
       <c r="E107" s="68"/>
       <c r="F107" s="68"/>
       <c r="G107" s="68"/>
@@ -4271,13 +4272,13 @@
       <c r="B108" s="61" t="s">
         <v>327</v>
       </c>
-      <c r="C108" s="71" t="s">
+      <c r="C108" s="115" t="s">
         <v>489</v>
       </c>
-      <c r="D108" s="71"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="71"/>
+      <c r="D108" s="115"/>
+      <c r="E108" s="115"/>
+      <c r="F108" s="115"/>
+      <c r="G108" s="115"/>
     </row>
     <row r="109" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="60"/>
@@ -4297,21 +4298,21 @@
       <c r="B110" s="61" t="s">
         <v>329</v>
       </c>
-      <c r="C110" s="71" t="s">
+      <c r="C110" s="115" t="s">
         <v>487</v>
       </c>
-      <c r="D110" s="71"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="71"/>
+      <c r="D110" s="115"/>
+      <c r="E110" s="115"/>
+      <c r="F110" s="115"/>
+      <c r="G110" s="115"/>
     </row>
     <row r="111" spans="1:7" s="16" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="60"/>
       <c r="B111" s="61"/>
-      <c r="C111" s="71" t="s">
+      <c r="C111" s="115" t="s">
         <v>488</v>
       </c>
-      <c r="D111" s="71"/>
+      <c r="D111" s="115"/>
       <c r="E111" s="68"/>
       <c r="F111" s="68"/>
       <c r="G111" s="68"/>
@@ -4398,15 +4399,15 @@
       <c r="G120" s="68"/>
     </row>
     <row r="121" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="82" t="s">
+      <c r="A121" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="B121" s="82"/>
-      <c r="C121" s="82"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="82"/>
-      <c r="G121" s="82"/>
+      <c r="B121" s="101"/>
+      <c r="C121" s="101"/>
+      <c r="D121" s="101"/>
+      <c r="E121" s="101"/>
+      <c r="F121" s="101"/>
+      <c r="G121" s="101"/>
     </row>
     <row r="122" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="17" t="s">
@@ -4415,13 +4416,13 @@
       <c r="B122" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C122" s="82" t="s">
+      <c r="C122" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D122" s="82"/>
-      <c r="E122" s="82"/>
-      <c r="F122" s="82"/>
-      <c r="G122" s="82"/>
+      <c r="D122" s="101"/>
+      <c r="E122" s="101"/>
+      <c r="F122" s="101"/>
+      <c r="G122" s="101"/>
     </row>
     <row r="123" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
@@ -4430,13 +4431,13 @@
       <c r="B123" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C123" s="72" t="s">
+      <c r="C123" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D123" s="72"/>
-      <c r="E123" s="72"/>
-      <c r="F123" s="72"/>
-      <c r="G123" s="72"/>
+      <c r="D123" s="98"/>
+      <c r="E123" s="98"/>
+      <c r="F123" s="98"/>
+      <c r="G123" s="98"/>
     </row>
     <row r="124" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
@@ -4445,13 +4446,13 @@
       <c r="B124" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C124" s="72" t="s">
+      <c r="C124" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D124" s="72"/>
-      <c r="E124" s="72"/>
-      <c r="F124" s="72"/>
-      <c r="G124" s="72"/>
+      <c r="D124" s="98"/>
+      <c r="E124" s="98"/>
+      <c r="F124" s="98"/>
+      <c r="G124" s="98"/>
     </row>
     <row r="125" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
@@ -4460,21 +4461,21 @@
       <c r="B125" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C125" s="72" t="s">
+      <c r="C125" s="98" t="s">
         <v>548</v>
       </c>
-      <c r="D125" s="72"/>
-      <c r="E125" s="72"/>
-      <c r="F125" s="72"/>
-      <c r="G125" s="72"/>
+      <c r="D125" s="98"/>
+      <c r="E125" s="98"/>
+      <c r="F125" s="98"/>
+      <c r="G125" s="98"/>
     </row>
     <row r="126" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="3"/>
-      <c r="C126" s="72" t="s">
+      <c r="C126" s="98" t="s">
         <v>556</v>
       </c>
-      <c r="D126" s="72"/>
+      <c r="D126" s="98"/>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
@@ -4486,13 +4487,13 @@
       <c r="B127" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C127" s="72" t="s">
+      <c r="C127" s="98" t="s">
         <v>550</v>
       </c>
-      <c r="D127" s="72"/>
-      <c r="E127" s="72"/>
-      <c r="F127" s="72"/>
-      <c r="G127" s="72"/>
+      <c r="D127" s="98"/>
+      <c r="E127" s="98"/>
+      <c r="F127" s="98"/>
+      <c r="G127" s="98"/>
     </row>
     <row r="128" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
@@ -4512,13 +4513,13 @@
       <c r="B129" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C129" s="72" t="s">
+      <c r="C129" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="D129" s="72"/>
-      <c r="E129" s="72"/>
-      <c r="F129" s="72"/>
-      <c r="G129" s="72"/>
+      <c r="D129" s="98"/>
+      <c r="E129" s="98"/>
+      <c r="F129" s="98"/>
+      <c r="G129" s="98"/>
     </row>
     <row r="130" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
@@ -4527,13 +4528,13 @@
       <c r="B130" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C130" s="72" t="s">
+      <c r="C130" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="D130" s="72"/>
-      <c r="E130" s="72"/>
-      <c r="F130" s="72"/>
-      <c r="G130" s="72"/>
+      <c r="D130" s="98"/>
+      <c r="E130" s="98"/>
+      <c r="F130" s="98"/>
+      <c r="G130" s="98"/>
     </row>
     <row r="131" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
@@ -4542,13 +4543,13 @@
       <c r="B131" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C131" s="72" t="s">
+      <c r="C131" s="98" t="s">
         <v>397</v>
       </c>
-      <c r="D131" s="72"/>
-      <c r="E131" s="72"/>
-      <c r="F131" s="72"/>
-      <c r="G131" s="72"/>
+      <c r="D131" s="98"/>
+      <c r="E131" s="98"/>
+      <c r="F131" s="98"/>
+      <c r="G131" s="98"/>
     </row>
     <row r="132" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
@@ -4557,13 +4558,13 @@
       <c r="B132" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C132" s="72" t="s">
+      <c r="C132" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="D132" s="72"/>
-      <c r="E132" s="72"/>
-      <c r="F132" s="72"/>
-      <c r="G132" s="72"/>
+      <c r="D132" s="98"/>
+      <c r="E132" s="98"/>
+      <c r="F132" s="98"/>
+      <c r="G132" s="98"/>
     </row>
     <row r="133" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
@@ -4572,13 +4573,13 @@
       <c r="B133" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C133" s="72" t="s">
+      <c r="C133" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="D133" s="72"/>
-      <c r="E133" s="72"/>
-      <c r="F133" s="72"/>
-      <c r="G133" s="72"/>
+      <c r="D133" s="98"/>
+      <c r="E133" s="98"/>
+      <c r="F133" s="98"/>
+      <c r="G133" s="98"/>
     </row>
     <row r="134" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
@@ -4587,13 +4588,13 @@
       <c r="B134" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C134" s="72" t="s">
+      <c r="C134" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="D134" s="72"/>
-      <c r="E134" s="72"/>
-      <c r="F134" s="72"/>
-      <c r="G134" s="72"/>
+      <c r="D134" s="98"/>
+      <c r="E134" s="98"/>
+      <c r="F134" s="98"/>
+      <c r="G134" s="98"/>
     </row>
     <row r="135" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
@@ -4602,13 +4603,13 @@
       <c r="B135" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C135" s="72" t="s">
+      <c r="C135" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="D135" s="72"/>
-      <c r="E135" s="72"/>
-      <c r="F135" s="72"/>
-      <c r="G135" s="72"/>
+      <c r="D135" s="98"/>
+      <c r="E135" s="98"/>
+      <c r="F135" s="98"/>
+      <c r="G135" s="98"/>
     </row>
     <row r="136" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
@@ -4617,13 +4618,13 @@
       <c r="B136" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C136" s="72" t="s">
+      <c r="C136" s="98" t="s">
         <v>555</v>
       </c>
-      <c r="D136" s="72"/>
-      <c r="E136" s="72"/>
-      <c r="F136" s="72"/>
-      <c r="G136" s="72"/>
+      <c r="D136" s="98"/>
+      <c r="E136" s="98"/>
+      <c r="F136" s="98"/>
+      <c r="G136" s="98"/>
     </row>
     <row r="137" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
@@ -4643,21 +4644,21 @@
       <c r="B138" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C138" s="72" t="s">
+      <c r="C138" s="98" t="s">
         <v>551</v>
       </c>
-      <c r="D138" s="72"/>
-      <c r="E138" s="72"/>
-      <c r="F138" s="72"/>
-      <c r="G138" s="72"/>
+      <c r="D138" s="98"/>
+      <c r="E138" s="98"/>
+      <c r="F138" s="98"/>
+      <c r="G138" s="98"/>
     </row>
     <row r="139" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="3"/>
-      <c r="C139" s="72" t="s">
+      <c r="C139" s="98" t="s">
         <v>558</v>
       </c>
-      <c r="D139" s="72"/>
+      <c r="D139" s="98"/>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
@@ -4669,13 +4670,13 @@
       <c r="B140" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C140" s="72" t="s">
+      <c r="C140" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="D140" s="72"/>
-      <c r="E140" s="72"/>
-      <c r="F140" s="72"/>
-      <c r="G140" s="72"/>
+      <c r="D140" s="98"/>
+      <c r="E140" s="98"/>
+      <c r="F140" s="98"/>
+      <c r="G140" s="98"/>
     </row>
     <row r="141" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="62" t="s">
@@ -4684,13 +4685,13 @@
       <c r="B141" s="61" t="s">
         <v>330</v>
       </c>
-      <c r="C141" s="71" t="s">
+      <c r="C141" s="115" t="s">
         <v>552</v>
       </c>
-      <c r="D141" s="71"/>
-      <c r="E141" s="71"/>
-      <c r="F141" s="71"/>
-      <c r="G141" s="71"/>
+      <c r="D141" s="115"/>
+      <c r="E141" s="115"/>
+      <c r="F141" s="115"/>
+      <c r="G141" s="115"/>
     </row>
     <row r="142" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="62"/>
@@ -4710,13 +4711,13 @@
       <c r="B143" s="64" t="s">
         <v>333</v>
       </c>
-      <c r="C143" s="76" t="s">
+      <c r="C143" s="119" t="s">
         <v>393</v>
       </c>
-      <c r="D143" s="76"/>
-      <c r="E143" s="76"/>
-      <c r="F143" s="76"/>
-      <c r="G143" s="76"/>
+      <c r="D143" s="119"/>
+      <c r="E143" s="119"/>
+      <c r="F143" s="119"/>
+      <c r="G143" s="119"/>
     </row>
     <row r="144" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
@@ -4725,13 +4726,13 @@
       <c r="B144" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C144" s="72" t="s">
+      <c r="C144" s="98" t="s">
         <v>398</v>
       </c>
-      <c r="D144" s="72"/>
-      <c r="E144" s="72"/>
-      <c r="F144" s="72"/>
-      <c r="G144" s="72"/>
+      <c r="D144" s="98"/>
+      <c r="E144" s="98"/>
+      <c r="F144" s="98"/>
+      <c r="G144" s="98"/>
     </row>
     <row r="145" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
@@ -4740,13 +4741,13 @@
       <c r="B145" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="C145" s="72" t="s">
+      <c r="C145" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D145" s="72"/>
-      <c r="E145" s="72"/>
-      <c r="F145" s="72"/>
-      <c r="G145" s="72"/>
+      <c r="D145" s="98"/>
+      <c r="E145" s="98"/>
+      <c r="F145" s="98"/>
+      <c r="G145" s="98"/>
     </row>
     <row r="146" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
@@ -4755,13 +4756,13 @@
       <c r="B146" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C146" s="72" t="s">
+      <c r="C146" s="98" t="s">
         <v>76</v>
       </c>
-      <c r="D146" s="72"/>
-      <c r="E146" s="72"/>
-      <c r="F146" s="72"/>
-      <c r="G146" s="72"/>
+      <c r="D146" s="98"/>
+      <c r="E146" s="98"/>
+      <c r="F146" s="98"/>
+      <c r="G146" s="98"/>
     </row>
     <row r="147" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
@@ -4770,13 +4771,13 @@
       <c r="B147" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C147" s="72" t="s">
+      <c r="C147" s="98" t="s">
         <v>78</v>
       </c>
-      <c r="D147" s="72"/>
-      <c r="E147" s="72"/>
-      <c r="F147" s="72"/>
-      <c r="G147" s="72"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="98"/>
+      <c r="G147" s="98"/>
     </row>
     <row r="148" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
@@ -4785,13 +4786,13 @@
       <c r="B148" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="C148" s="72" t="s">
+      <c r="C148" s="98" t="s">
         <v>553</v>
       </c>
-      <c r="D148" s="72"/>
-      <c r="E148" s="72"/>
-      <c r="F148" s="72"/>
-      <c r="G148" s="72"/>
+      <c r="D148" s="98"/>
+      <c r="E148" s="98"/>
+      <c r="F148" s="98"/>
+      <c r="G148" s="98"/>
     </row>
     <row r="149" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
@@ -4811,13 +4812,13 @@
       <c r="B150" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C150" s="72" t="s">
+      <c r="C150" s="98" t="s">
         <v>82</v>
       </c>
-      <c r="D150" s="72"/>
-      <c r="E150" s="72"/>
-      <c r="F150" s="72"/>
-      <c r="G150" s="72"/>
+      <c r="D150" s="98"/>
+      <c r="E150" s="98"/>
+      <c r="F150" s="98"/>
+      <c r="G150" s="98"/>
     </row>
     <row r="151" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
@@ -4826,13 +4827,13 @@
       <c r="B151" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="C151" s="72" t="s">
+      <c r="C151" s="98" t="s">
         <v>399</v>
       </c>
-      <c r="D151" s="72"/>
-      <c r="E151" s="72"/>
-      <c r="F151" s="72"/>
-      <c r="G151" s="72"/>
+      <c r="D151" s="98"/>
+      <c r="E151" s="98"/>
+      <c r="F151" s="98"/>
+      <c r="G151" s="98"/>
     </row>
     <row r="152" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
@@ -4841,13 +4842,13 @@
       <c r="B152" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C152" s="72" t="s">
+      <c r="C152" s="98" t="s">
         <v>400</v>
       </c>
-      <c r="D152" s="72"/>
-      <c r="E152" s="72"/>
-      <c r="F152" s="72"/>
-      <c r="G152" s="72"/>
+      <c r="D152" s="98"/>
+      <c r="E152" s="98"/>
+      <c r="F152" s="98"/>
+      <c r="G152" s="98"/>
     </row>
     <row r="153" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
@@ -4856,13 +4857,13 @@
       <c r="B153" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C153" s="72" t="s">
+      <c r="C153" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="72"/>
-      <c r="G153" s="72"/>
+      <c r="D153" s="98"/>
+      <c r="E153" s="98"/>
+      <c r="F153" s="98"/>
+      <c r="G153" s="98"/>
     </row>
     <row r="154" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A154" s="2" t="s">
@@ -4871,24 +4872,24 @@
       <c r="B154" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C154" s="72" t="s">
+      <c r="C154" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D154" s="72"/>
-      <c r="E154" s="72"/>
-      <c r="F154" s="72"/>
-      <c r="G154" s="72"/>
+      <c r="D154" s="98"/>
+      <c r="E154" s="98"/>
+      <c r="F154" s="98"/>
+      <c r="G154" s="98"/>
     </row>
     <row r="155" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A155" s="86" t="s">
+      <c r="A155" s="106" t="s">
         <v>233</v>
       </c>
-      <c r="B155" s="87"/>
-      <c r="C155" s="87"/>
-      <c r="D155" s="87"/>
-      <c r="E155" s="87"/>
-      <c r="F155" s="87"/>
-      <c r="G155" s="88"/>
+      <c r="B155" s="107"/>
+      <c r="C155" s="107"/>
+      <c r="D155" s="107"/>
+      <c r="E155" s="107"/>
+      <c r="F155" s="107"/>
+      <c r="G155" s="108"/>
     </row>
     <row r="156" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="53"/>
@@ -4896,12 +4897,12 @@
         <v>313</v>
       </c>
       <c r="C156" s="55"/>
-      <c r="D156" s="89" t="s">
+      <c r="D156" s="109" t="s">
         <v>247</v>
       </c>
-      <c r="E156" s="90"/>
-      <c r="F156" s="90"/>
-      <c r="G156" s="91"/>
+      <c r="E156" s="110"/>
+      <c r="F156" s="110"/>
+      <c r="G156" s="111"/>
     </row>
     <row r="157" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="35" t="s">
@@ -5010,12 +5011,12 @@
         <v>258</v>
       </c>
       <c r="C165" s="58"/>
-      <c r="D165" s="92" t="s">
+      <c r="D165" s="84" t="s">
         <v>271</v>
       </c>
-      <c r="E165" s="93"/>
-      <c r="F165" s="93"/>
-      <c r="G165" s="94"/>
+      <c r="E165" s="85"/>
+      <c r="F165" s="85"/>
+      <c r="G165" s="86"/>
     </row>
     <row r="166" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="30" t="s">
@@ -5089,14 +5090,14 @@
         <v>265</v>
       </c>
       <c r="C170" s="31"/>
-      <c r="D170" s="102" t="s">
+      <c r="D170" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="E170" s="98" t="s">
+      <c r="E170" s="89" t="s">
         <v>280</v>
       </c>
-      <c r="F170" s="98"/>
-      <c r="G170" s="99"/>
+      <c r="F170" s="89"/>
+      <c r="G170" s="90"/>
     </row>
     <row r="171" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A171" s="36" t="s">
@@ -5106,20 +5107,20 @@
         <v>267</v>
       </c>
       <c r="C171" s="34"/>
-      <c r="D171" s="103"/>
-      <c r="E171" s="100"/>
-      <c r="F171" s="100"/>
-      <c r="G171" s="101"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="91"/>
+      <c r="F171" s="91"/>
+      <c r="G171" s="92"/>
     </row>
     <row r="172" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A172" s="22"/>
     </row>
     <row r="173" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A173" s="95" t="s">
+      <c r="A173" s="93" t="s">
         <v>282</v>
       </c>
-      <c r="B173" s="96"/>
-      <c r="C173" s="97"/>
+      <c r="B173" s="94"/>
+      <c r="C173" s="95"/>
       <c r="D173" s="10"/>
     </row>
     <row r="174" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -5182,15 +5183,15 @@
       <c r="G180" s="3"/>
     </row>
     <row r="181" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" s="77" t="s">
+      <c r="A181" s="96" t="s">
         <v>394</v>
       </c>
-      <c r="B181" s="77"/>
-      <c r="C181" s="77"/>
-      <c r="D181" s="77"/>
-      <c r="E181" s="77"/>
-      <c r="F181" s="77"/>
-      <c r="G181" s="77"/>
+      <c r="B181" s="96"/>
+      <c r="C181" s="96"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="96"/>
+      <c r="G181" s="96"/>
     </row>
     <row r="182" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="18" t="s">
@@ -5199,13 +5200,13 @@
       <c r="B182" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C182" s="78" t="s">
+      <c r="C182" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D182" s="78"/>
-      <c r="E182" s="78"/>
-      <c r="F182" s="78"/>
-      <c r="G182" s="78"/>
+      <c r="D182" s="97"/>
+      <c r="E182" s="97"/>
+      <c r="F182" s="97"/>
+      <c r="G182" s="97"/>
     </row>
     <row r="183" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
@@ -5214,21 +5215,21 @@
       <c r="B183" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C183" s="72" t="s">
+      <c r="C183" s="98" t="s">
         <v>485</v>
       </c>
-      <c r="D183" s="72"/>
-      <c r="E183" s="72"/>
-      <c r="F183" s="72"/>
-      <c r="G183" s="72"/>
+      <c r="D183" s="98"/>
+      <c r="E183" s="98"/>
+      <c r="F183" s="98"/>
+      <c r="G183" s="98"/>
     </row>
     <row r="184" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
-      <c r="C184" s="72" t="s">
+      <c r="C184" s="98" t="s">
         <v>484</v>
       </c>
-      <c r="D184" s="72"/>
+      <c r="D184" s="98"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -5236,10 +5237,10 @@
     <row r="185" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
-      <c r="C185" s="72" t="s">
+      <c r="C185" s="98" t="s">
         <v>486</v>
       </c>
-      <c r="D185" s="72"/>
+      <c r="D185" s="98"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
       <c r="G185" s="3"/>
@@ -5251,21 +5252,21 @@
       <c r="B186" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C186" s="72" t="s">
+      <c r="C186" s="98" t="s">
         <v>133</v>
       </c>
-      <c r="D186" s="72"/>
-      <c r="E186" s="72"/>
-      <c r="F186" s="72"/>
-      <c r="G186" s="72"/>
+      <c r="D186" s="98"/>
+      <c r="E186" s="98"/>
+      <c r="F186" s="98"/>
+      <c r="G186" s="98"/>
     </row>
     <row r="187" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
-      <c r="C187" s="72" t="s">
+      <c r="C187" s="98" t="s">
         <v>482</v>
       </c>
-      <c r="D187" s="72"/>
+      <c r="D187" s="98"/>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
       <c r="G187" s="3"/>
@@ -5288,21 +5289,21 @@
       <c r="B189" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C189" s="72" t="s">
+      <c r="C189" s="98" t="s">
         <v>481</v>
       </c>
-      <c r="D189" s="72"/>
-      <c r="E189" s="72"/>
-      <c r="F189" s="72"/>
-      <c r="G189" s="72"/>
+      <c r="D189" s="98"/>
+      <c r="E189" s="98"/>
+      <c r="F189" s="98"/>
+      <c r="G189" s="98"/>
     </row>
     <row r="190" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
-      <c r="C190" s="72" t="s">
+      <c r="C190" s="98" t="s">
         <v>480</v>
       </c>
-      <c r="D190" s="72"/>
+      <c r="D190" s="98"/>
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
       <c r="G190" s="3"/>
@@ -5314,21 +5315,21 @@
       <c r="B191" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C191" s="72" t="s">
+      <c r="C191" s="98" t="s">
         <v>479</v>
       </c>
-      <c r="D191" s="72"/>
-      <c r="E191" s="72"/>
-      <c r="F191" s="72"/>
-      <c r="G191" s="72"/>
+      <c r="D191" s="98"/>
+      <c r="E191" s="98"/>
+      <c r="F191" s="98"/>
+      <c r="G191" s="98"/>
     </row>
     <row r="192" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
-      <c r="C192" s="72" t="s">
+      <c r="C192" s="98" t="s">
         <v>476</v>
       </c>
-      <c r="D192" s="72"/>
+      <c r="D192" s="98"/>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
       <c r="G192" s="3"/>
@@ -5336,10 +5337,10 @@
     <row r="193" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
-      <c r="C193" s="72" t="s">
+      <c r="C193" s="98" t="s">
         <v>477</v>
       </c>
-      <c r="D193" s="72"/>
+      <c r="D193" s="98"/>
       <c r="E193" s="5"/>
       <c r="F193" s="5"/>
       <c r="G193" s="5"/>
@@ -5351,10 +5352,10 @@
       <c r="B194" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C194" s="72" t="s">
+      <c r="C194" s="98" t="s">
         <v>475</v>
       </c>
-      <c r="D194" s="72"/>
+      <c r="D194" s="98"/>
       <c r="E194" s="5"/>
       <c r="F194" s="5"/>
       <c r="G194" s="5"/>
@@ -5362,10 +5363,10 @@
     <row r="195" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
-      <c r="C195" s="72" t="s">
+      <c r="C195" s="98" t="s">
         <v>474</v>
       </c>
-      <c r="D195" s="72"/>
+      <c r="D195" s="98"/>
       <c r="E195" s="3"/>
       <c r="F195" s="3"/>
       <c r="G195" s="3"/>
@@ -5373,10 +5374,10 @@
     <row r="196" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
-      <c r="C196" s="72" t="s">
+      <c r="C196" s="98" t="s">
         <v>478</v>
       </c>
-      <c r="D196" s="72"/>
+      <c r="D196" s="98"/>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
       <c r="G196" s="3"/>
@@ -5388,21 +5389,21 @@
       <c r="B197" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="C197" s="72" t="s">
+      <c r="C197" s="98" t="s">
         <v>473</v>
       </c>
-      <c r="D197" s="72"/>
-      <c r="E197" s="72"/>
-      <c r="F197" s="72"/>
-      <c r="G197" s="72"/>
+      <c r="D197" s="98"/>
+      <c r="E197" s="98"/>
+      <c r="F197" s="98"/>
+      <c r="G197" s="98"/>
     </row>
     <row r="198" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
-      <c r="C198" s="72" t="s">
+      <c r="C198" s="98" t="s">
         <v>471</v>
       </c>
-      <c r="D198" s="72"/>
+      <c r="D198" s="98"/>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
       <c r="G198" s="3"/>
@@ -5410,10 +5411,10 @@
     <row r="199" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
-      <c r="C199" s="72" t="s">
+      <c r="C199" s="98" t="s">
         <v>472</v>
       </c>
-      <c r="D199" s="72"/>
+      <c r="D199" s="98"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
       <c r="G199" s="3"/>
@@ -5425,21 +5426,21 @@
       <c r="B200" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="C200" s="72" t="s">
+      <c r="C200" s="98" t="s">
         <v>470</v>
       </c>
-      <c r="D200" s="72"/>
-      <c r="E200" s="72"/>
-      <c r="F200" s="72"/>
-      <c r="G200" s="72"/>
+      <c r="D200" s="98"/>
+      <c r="E200" s="98"/>
+      <c r="F200" s="98"/>
+      <c r="G200" s="98"/>
     </row>
     <row r="201" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="4"/>
       <c r="B201" s="5"/>
-      <c r="C201" s="72" t="s">
+      <c r="C201" s="98" t="s">
         <v>468</v>
       </c>
-      <c r="D201" s="72"/>
+      <c r="D201" s="98"/>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
       <c r="G201" s="3"/>
@@ -5447,10 +5448,10 @@
     <row r="202" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="4"/>
       <c r="B202" s="5"/>
-      <c r="C202" s="72" t="s">
+      <c r="C202" s="98" t="s">
         <v>469</v>
       </c>
-      <c r="D202" s="72"/>
+      <c r="D202" s="98"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
       <c r="G202" s="3"/>
@@ -5462,13 +5463,13 @@
       <c r="B203" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C203" s="72" t="s">
+      <c r="C203" s="98" t="s">
         <v>467</v>
       </c>
-      <c r="D203" s="72"/>
-      <c r="E203" s="72"/>
-      <c r="F203" s="72"/>
-      <c r="G203" s="72"/>
+      <c r="D203" s="98"/>
+      <c r="E203" s="98"/>
+      <c r="F203" s="98"/>
+      <c r="G203" s="98"/>
     </row>
     <row r="204" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="4"/>
@@ -5484,10 +5485,10 @@
     <row r="205" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="4"/>
       <c r="B205" s="5"/>
-      <c r="C205" s="72" t="s">
+      <c r="C205" s="98" t="s">
         <v>466</v>
       </c>
-      <c r="D205" s="72"/>
+      <c r="D205" s="98"/>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
@@ -5499,13 +5500,13 @@
       <c r="B206" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C206" s="72" t="s">
+      <c r="C206" s="98" t="s">
         <v>464</v>
       </c>
-      <c r="D206" s="72"/>
-      <c r="E206" s="72"/>
-      <c r="F206" s="72"/>
-      <c r="G206" s="72"/>
+      <c r="D206" s="98"/>
+      <c r="E206" s="98"/>
+      <c r="F206" s="98"/>
+      <c r="G206" s="98"/>
     </row>
     <row r="207" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="4"/>
@@ -5521,10 +5522,10 @@
     <row r="208" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="4"/>
       <c r="B208" s="5"/>
-      <c r="C208" s="72" t="s">
+      <c r="C208" s="98" t="s">
         <v>463</v>
       </c>
-      <c r="D208" s="72"/>
+      <c r="D208" s="98"/>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
       <c r="G208" s="3"/>
@@ -5536,21 +5537,21 @@
       <c r="B209" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C209" s="72" t="s">
+      <c r="C209" s="98" t="s">
         <v>459</v>
       </c>
-      <c r="D209" s="72"/>
-      <c r="E209" s="72"/>
-      <c r="F209" s="72"/>
-      <c r="G209" s="72"/>
+      <c r="D209" s="98"/>
+      <c r="E209" s="98"/>
+      <c r="F209" s="98"/>
+      <c r="G209" s="98"/>
     </row>
     <row r="210" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="4"/>
       <c r="B210" s="5"/>
-      <c r="C210" s="72" t="s">
+      <c r="C210" s="98" t="s">
         <v>461</v>
       </c>
-      <c r="D210" s="72"/>
+      <c r="D210" s="98"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
       <c r="G210" s="3"/>
@@ -5558,10 +5559,10 @@
     <row r="211" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="4"/>
       <c r="B211" s="5"/>
-      <c r="C211" s="72" t="s">
+      <c r="C211" s="98" t="s">
         <v>460</v>
       </c>
-      <c r="D211" s="72"/>
+      <c r="D211" s="98"/>
       <c r="E211" s="3"/>
       <c r="F211" s="3"/>
       <c r="G211" s="3"/>
@@ -5573,13 +5574,13 @@
       <c r="B212" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C212" s="72" t="s">
+      <c r="C212" s="98" t="s">
         <v>458</v>
       </c>
-      <c r="D212" s="72"/>
-      <c r="E212" s="72"/>
-      <c r="F212" s="72"/>
-      <c r="G212" s="72"/>
+      <c r="D212" s="98"/>
+      <c r="E212" s="98"/>
+      <c r="F212" s="98"/>
+      <c r="G212" s="98"/>
     </row>
     <row r="213" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="4"/>
@@ -5610,21 +5611,21 @@
       <c r="B215" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C215" s="72" t="s">
+      <c r="C215" s="98" t="s">
         <v>454</v>
       </c>
-      <c r="D215" s="72"/>
-      <c r="E215" s="72"/>
-      <c r="F215" s="72"/>
-      <c r="G215" s="72"/>
+      <c r="D215" s="98"/>
+      <c r="E215" s="98"/>
+      <c r="F215" s="98"/>
+      <c r="G215" s="98"/>
     </row>
     <row r="216" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="4"/>
       <c r="B216" s="5"/>
-      <c r="C216" s="72" t="s">
+      <c r="C216" s="98" t="s">
         <v>453</v>
       </c>
-      <c r="D216" s="72"/>
+      <c r="D216" s="98"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
       <c r="G216" s="3"/>
@@ -5632,10 +5633,10 @@
     <row r="217" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="4"/>
       <c r="B217" s="5"/>
-      <c r="C217" s="72" t="s">
+      <c r="C217" s="98" t="s">
         <v>455</v>
       </c>
-      <c r="D217" s="72"/>
+      <c r="D217" s="98"/>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
       <c r="G217" s="3"/>
@@ -5647,13 +5648,13 @@
       <c r="B218" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C218" s="72" t="s">
+      <c r="C218" s="98" t="s">
         <v>452</v>
       </c>
-      <c r="D218" s="72"/>
-      <c r="E218" s="72"/>
-      <c r="F218" s="72"/>
-      <c r="G218" s="72"/>
+      <c r="D218" s="98"/>
+      <c r="E218" s="98"/>
+      <c r="F218" s="98"/>
+      <c r="G218" s="98"/>
     </row>
     <row r="219" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="4"/>
@@ -5684,13 +5685,13 @@
       <c r="B221" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C221" s="72" t="s">
+      <c r="C221" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="D221" s="72"/>
-      <c r="E221" s="72"/>
-      <c r="F221" s="72"/>
-      <c r="G221" s="72"/>
+      <c r="D221" s="98"/>
+      <c r="E221" s="98"/>
+      <c r="F221" s="98"/>
+      <c r="G221" s="98"/>
     </row>
     <row r="222" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="4"/>
@@ -5721,13 +5722,13 @@
       <c r="B224" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C224" s="72" t="s">
+      <c r="C224" s="98" t="s">
         <v>447</v>
       </c>
-      <c r="D224" s="72"/>
-      <c r="E224" s="72"/>
-      <c r="F224" s="72"/>
-      <c r="G224" s="72"/>
+      <c r="D224" s="98"/>
+      <c r="E224" s="98"/>
+      <c r="F224" s="98"/>
+      <c r="G224" s="98"/>
     </row>
     <row r="225" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="4"/>
@@ -5743,10 +5744,10 @@
     <row r="226" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="4"/>
       <c r="B226" s="5"/>
-      <c r="C226" s="72" t="s">
+      <c r="C226" s="98" t="s">
         <v>465</v>
       </c>
-      <c r="D226" s="72"/>
+      <c r="D226" s="98"/>
       <c r="E226" s="3"/>
       <c r="F226" s="3"/>
       <c r="G226" s="3"/>
@@ -5758,173 +5759,173 @@
       <c r="B227" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C227" s="72" t="s">
+      <c r="C227" s="98" t="s">
         <v>444</v>
       </c>
-      <c r="D227" s="72"/>
-      <c r="E227" s="72"/>
-      <c r="F227" s="72"/>
-      <c r="G227" s="72"/>
+      <c r="D227" s="98"/>
+      <c r="E227" s="98"/>
+      <c r="F227" s="98"/>
+      <c r="G227" s="98"/>
     </row>
     <row r="228" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="4"/>
       <c r="B228" s="5"/>
-      <c r="C228" s="72" t="s">
+      <c r="C228" s="98" t="s">
         <v>445</v>
       </c>
-      <c r="D228" s="72"/>
+      <c r="D228" s="98"/>
       <c r="E228" s="3"/>
       <c r="F228" s="3"/>
       <c r="G228" s="3"/>
     </row>
     <row r="229" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="74" t="s">
+      <c r="A229" s="104" t="s">
         <v>359</v>
       </c>
-      <c r="B229" s="75" t="s">
+      <c r="B229" s="105" t="s">
         <v>360</v>
       </c>
-      <c r="C229" s="72" t="s">
+      <c r="C229" s="98" t="s">
         <v>361</v>
       </c>
-      <c r="D229" s="72"/>
-      <c r="E229" s="72"/>
-      <c r="F229" s="72"/>
-      <c r="G229" s="72"/>
+      <c r="D229" s="98"/>
+      <c r="E229" s="98"/>
+      <c r="F229" s="98"/>
+      <c r="G229" s="98"/>
     </row>
     <row r="230" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A230" s="74"/>
-      <c r="B230" s="75"/>
-      <c r="C230" s="72" t="s">
+      <c r="A230" s="104"/>
+      <c r="B230" s="105"/>
+      <c r="C230" s="98" t="s">
         <v>362</v>
       </c>
-      <c r="D230" s="72"/>
-      <c r="E230" s="72"/>
-      <c r="F230" s="72"/>
-      <c r="G230" s="72"/>
+      <c r="D230" s="98"/>
+      <c r="E230" s="98"/>
+      <c r="F230" s="98"/>
+      <c r="G230" s="98"/>
     </row>
     <row r="231" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="74"/>
-      <c r="B231" s="75"/>
-      <c r="C231" s="72" t="s">
+      <c r="A231" s="104"/>
+      <c r="B231" s="105"/>
+      <c r="C231" s="98" t="s">
         <v>363</v>
       </c>
-      <c r="D231" s="72"/>
-      <c r="E231" s="72"/>
-      <c r="F231" s="72"/>
-      <c r="G231" s="72"/>
+      <c r="D231" s="98"/>
+      <c r="E231" s="98"/>
+      <c r="F231" s="98"/>
+      <c r="G231" s="98"/>
     </row>
     <row r="232" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A232" s="74" t="s">
+      <c r="A232" s="104" t="s">
         <v>364</v>
       </c>
-      <c r="B232" s="75" t="s">
+      <c r="B232" s="105" t="s">
         <v>365</v>
       </c>
-      <c r="C232" s="72" t="s">
+      <c r="C232" s="98" t="s">
         <v>366</v>
       </c>
-      <c r="D232" s="72"/>
-      <c r="E232" s="72"/>
-      <c r="F232" s="72"/>
-      <c r="G232" s="72"/>
+      <c r="D232" s="98"/>
+      <c r="E232" s="98"/>
+      <c r="F232" s="98"/>
+      <c r="G232" s="98"/>
     </row>
     <row r="233" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A233" s="74"/>
-      <c r="B233" s="75"/>
-      <c r="C233" s="72" t="s">
+      <c r="A233" s="104"/>
+      <c r="B233" s="105"/>
+      <c r="C233" s="98" t="s">
         <v>367</v>
       </c>
-      <c r="D233" s="72"/>
-      <c r="E233" s="72"/>
-      <c r="F233" s="72"/>
-      <c r="G233" s="72"/>
+      <c r="D233" s="98"/>
+      <c r="E233" s="98"/>
+      <c r="F233" s="98"/>
+      <c r="G233" s="98"/>
     </row>
     <row r="234" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="74" t="s">
+      <c r="A234" s="104" t="s">
         <v>368</v>
       </c>
-      <c r="B234" s="75" t="s">
+      <c r="B234" s="105" t="s">
         <v>369</v>
       </c>
-      <c r="C234" s="72" t="s">
+      <c r="C234" s="98" t="s">
         <v>370</v>
       </c>
-      <c r="D234" s="72"/>
-      <c r="E234" s="72"/>
-      <c r="F234" s="72"/>
-      <c r="G234" s="72"/>
+      <c r="D234" s="98"/>
+      <c r="E234" s="98"/>
+      <c r="F234" s="98"/>
+      <c r="G234" s="98"/>
     </row>
     <row r="235" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A235" s="74"/>
-      <c r="B235" s="75"/>
-      <c r="C235" s="72" t="s">
+      <c r="A235" s="104"/>
+      <c r="B235" s="105"/>
+      <c r="C235" s="98" t="s">
         <v>371</v>
       </c>
-      <c r="D235" s="72"/>
-      <c r="E235" s="72"/>
-      <c r="F235" s="72"/>
-      <c r="G235" s="72"/>
+      <c r="D235" s="98"/>
+      <c r="E235" s="98"/>
+      <c r="F235" s="98"/>
+      <c r="G235" s="98"/>
     </row>
     <row r="236" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A236" s="74"/>
-      <c r="B236" s="75"/>
-      <c r="C236" s="72" t="s">
+      <c r="A236" s="104"/>
+      <c r="B236" s="105"/>
+      <c r="C236" s="98" t="s">
         <v>372</v>
       </c>
-      <c r="D236" s="72"/>
-      <c r="E236" s="72"/>
-      <c r="F236" s="72"/>
-      <c r="G236" s="72"/>
+      <c r="D236" s="98"/>
+      <c r="E236" s="98"/>
+      <c r="F236" s="98"/>
+      <c r="G236" s="98"/>
     </row>
     <row r="237" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A237" s="74" t="s">
+      <c r="A237" s="104" t="s">
         <v>373</v>
       </c>
-      <c r="B237" s="75" t="s">
+      <c r="B237" s="105" t="s">
         <v>374</v>
       </c>
-      <c r="C237" s="72" t="s">
+      <c r="C237" s="98" t="s">
         <v>375</v>
       </c>
-      <c r="D237" s="72"/>
-      <c r="E237" s="72"/>
-      <c r="F237" s="72"/>
-      <c r="G237" s="72"/>
+      <c r="D237" s="98"/>
+      <c r="E237" s="98"/>
+      <c r="F237" s="98"/>
+      <c r="G237" s="98"/>
     </row>
     <row r="238" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A238" s="74"/>
-      <c r="B238" s="75"/>
-      <c r="C238" s="72" t="s">
+      <c r="A238" s="104"/>
+      <c r="B238" s="105"/>
+      <c r="C238" s="98" t="s">
         <v>376</v>
       </c>
-      <c r="D238" s="72"/>
-      <c r="E238" s="72"/>
-      <c r="F238" s="72"/>
-      <c r="G238" s="72"/>
+      <c r="D238" s="98"/>
+      <c r="E238" s="98"/>
+      <c r="F238" s="98"/>
+      <c r="G238" s="98"/>
     </row>
     <row r="239" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A239" s="74"/>
-      <c r="B239" s="75"/>
-      <c r="C239" s="72" t="s">
+      <c r="A239" s="104"/>
+      <c r="B239" s="105"/>
+      <c r="C239" s="98" t="s">
         <v>377</v>
       </c>
-      <c r="D239" s="72"/>
-      <c r="E239" s="72"/>
-      <c r="F239" s="72"/>
-      <c r="G239" s="72"/>
+      <c r="D239" s="98"/>
+      <c r="E239" s="98"/>
+      <c r="F239" s="98"/>
+      <c r="G239" s="98"/>
     </row>
     <row r="240" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="241" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A241" s="77" t="s">
+      <c r="A241" s="96" t="s">
         <v>394</v>
       </c>
-      <c r="B241" s="77"/>
-      <c r="C241" s="77"/>
-      <c r="D241" s="77"/>
-      <c r="E241" s="77"/>
-      <c r="F241" s="77"/>
-      <c r="G241" s="77"/>
+      <c r="B241" s="96"/>
+      <c r="C241" s="96"/>
+      <c r="D241" s="96"/>
+      <c r="E241" s="96"/>
+      <c r="F241" s="96"/>
+      <c r="G241" s="96"/>
     </row>
     <row r="242" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="18" t="s">
@@ -5933,13 +5934,13 @@
       <c r="B242" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C242" s="78" t="s">
+      <c r="C242" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="D242" s="78"/>
-      <c r="E242" s="78"/>
-      <c r="F242" s="78"/>
-      <c r="G242" s="78"/>
+      <c r="D242" s="97"/>
+      <c r="E242" s="97"/>
+      <c r="F242" s="97"/>
+      <c r="G242" s="97"/>
     </row>
     <row r="243" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="60" t="s">
@@ -5948,287 +5949,287 @@
       <c r="B243" s="61" t="s">
         <v>379</v>
       </c>
-      <c r="C243" s="72" t="s">
+      <c r="C243" s="98" t="s">
         <v>380</v>
       </c>
-      <c r="D243" s="72"/>
-      <c r="E243" s="72"/>
-      <c r="F243" s="72"/>
-      <c r="G243" s="72"/>
+      <c r="D243" s="98"/>
+      <c r="E243" s="98"/>
+      <c r="F243" s="98"/>
+      <c r="G243" s="98"/>
     </row>
     <row r="244" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="60"/>
       <c r="B244" s="61"/>
-      <c r="C244" s="72" t="s">
+      <c r="C244" s="98" t="s">
         <v>381</v>
       </c>
-      <c r="D244" s="72"/>
-      <c r="E244" s="72"/>
-      <c r="F244" s="72"/>
-      <c r="G244" s="72"/>
+      <c r="D244" s="98"/>
+      <c r="E244" s="98"/>
+      <c r="F244" s="98"/>
+      <c r="G244" s="98"/>
     </row>
     <row r="245" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="60"/>
       <c r="B245" s="61"/>
-      <c r="C245" s="72" t="s">
+      <c r="C245" s="98" t="s">
         <v>382</v>
       </c>
-      <c r="D245" s="72"/>
-      <c r="E245" s="72"/>
-      <c r="F245" s="72"/>
-      <c r="G245" s="72"/>
+      <c r="D245" s="98"/>
+      <c r="E245" s="98"/>
+      <c r="F245" s="98"/>
+      <c r="G245" s="98"/>
     </row>
     <row r="246" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A246" s="74" t="s">
+      <c r="A246" s="104" t="s">
         <v>383</v>
       </c>
-      <c r="B246" s="75" t="s">
+      <c r="B246" s="105" t="s">
         <v>384</v>
       </c>
-      <c r="C246" s="72" t="s">
+      <c r="C246" s="98" t="s">
         <v>385</v>
       </c>
-      <c r="D246" s="72"/>
-      <c r="E246" s="72"/>
-      <c r="F246" s="72"/>
-      <c r="G246" s="72"/>
+      <c r="D246" s="98"/>
+      <c r="E246" s="98"/>
+      <c r="F246" s="98"/>
+      <c r="G246" s="98"/>
     </row>
     <row r="247" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="74"/>
-      <c r="B247" s="75"/>
-      <c r="C247" s="72" t="s">
+      <c r="A247" s="104"/>
+      <c r="B247" s="105"/>
+      <c r="C247" s="98" t="s">
         <v>386</v>
       </c>
-      <c r="D247" s="72"/>
-      <c r="E247" s="72"/>
-      <c r="F247" s="72"/>
-      <c r="G247" s="72"/>
+      <c r="D247" s="98"/>
+      <c r="E247" s="98"/>
+      <c r="F247" s="98"/>
+      <c r="G247" s="98"/>
     </row>
     <row r="248" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A248" s="74"/>
-      <c r="B248" s="75"/>
-      <c r="C248" s="72" t="s">
+      <c r="A248" s="104"/>
+      <c r="B248" s="105"/>
+      <c r="C248" s="98" t="s">
         <v>387</v>
       </c>
-      <c r="D248" s="72"/>
-      <c r="E248" s="72"/>
-      <c r="F248" s="72"/>
-      <c r="G248" s="72"/>
+      <c r="D248" s="98"/>
+      <c r="E248" s="98"/>
+      <c r="F248" s="98"/>
+      <c r="G248" s="98"/>
     </row>
     <row r="249" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A249" s="74" t="s">
+      <c r="A249" s="104" t="s">
         <v>388</v>
       </c>
-      <c r="B249" s="75" t="s">
+      <c r="B249" s="105" t="s">
         <v>389</v>
       </c>
-      <c r="C249" s="72" t="s">
+      <c r="C249" s="98" t="s">
         <v>390</v>
       </c>
-      <c r="D249" s="72"/>
-      <c r="E249" s="72"/>
-      <c r="F249" s="72"/>
-      <c r="G249" s="72"/>
+      <c r="D249" s="98"/>
+      <c r="E249" s="98"/>
+      <c r="F249" s="98"/>
+      <c r="G249" s="98"/>
     </row>
     <row r="250" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A250" s="74"/>
-      <c r="B250" s="75"/>
-      <c r="C250" s="72" t="s">
+      <c r="A250" s="104"/>
+      <c r="B250" s="105"/>
+      <c r="C250" s="98" t="s">
         <v>391</v>
       </c>
-      <c r="D250" s="72"/>
-      <c r="E250" s="72"/>
-      <c r="F250" s="72"/>
-      <c r="G250" s="72"/>
+      <c r="D250" s="98"/>
+      <c r="E250" s="98"/>
+      <c r="F250" s="98"/>
+      <c r="G250" s="98"/>
     </row>
     <row r="251" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A251" s="74"/>
-      <c r="B251" s="75"/>
-      <c r="C251" s="72" t="s">
+      <c r="A251" s="104"/>
+      <c r="B251" s="105"/>
+      <c r="C251" s="98" t="s">
         <v>392</v>
       </c>
-      <c r="D251" s="72"/>
-      <c r="E251" s="72"/>
-      <c r="F251" s="72"/>
-      <c r="G251" s="72"/>
+      <c r="D251" s="98"/>
+      <c r="E251" s="98"/>
+      <c r="F251" s="98"/>
+      <c r="G251" s="98"/>
     </row>
     <row r="252" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A252" s="70" t="s">
+      <c r="A252" s="120" t="s">
         <v>409</v>
       </c>
-      <c r="B252" s="71" t="s">
+      <c r="B252" s="115" t="s">
         <v>410</v>
       </c>
-      <c r="C252" s="72" t="s">
+      <c r="C252" s="98" t="s">
         <v>411</v>
       </c>
-      <c r="D252" s="72"/>
-      <c r="E252" s="72"/>
-      <c r="F252" s="72"/>
-      <c r="G252" s="72"/>
+      <c r="D252" s="98"/>
+      <c r="E252" s="98"/>
+      <c r="F252" s="98"/>
+      <c r="G252" s="98"/>
     </row>
     <row r="253" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A253" s="70"/>
-      <c r="B253" s="71"/>
-      <c r="C253" s="72" t="s">
+      <c r="A253" s="120"/>
+      <c r="B253" s="115"/>
+      <c r="C253" s="98" t="s">
         <v>412</v>
       </c>
-      <c r="D253" s="72"/>
-      <c r="E253" s="72"/>
-      <c r="F253" s="72"/>
-      <c r="G253" s="72"/>
+      <c r="D253" s="98"/>
+      <c r="E253" s="98"/>
+      <c r="F253" s="98"/>
+      <c r="G253" s="98"/>
     </row>
     <row r="254" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A254" s="70"/>
-      <c r="B254" s="71"/>
-      <c r="C254" s="72" t="s">
+      <c r="A254" s="120"/>
+      <c r="B254" s="115"/>
+      <c r="C254" s="98" t="s">
         <v>413</v>
       </c>
-      <c r="D254" s="72"/>
-      <c r="E254" s="72"/>
-      <c r="F254" s="72"/>
-      <c r="G254" s="72"/>
+      <c r="D254" s="98"/>
+      <c r="E254" s="98"/>
+      <c r="F254" s="98"/>
+      <c r="G254" s="98"/>
     </row>
     <row r="255" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A255" s="84" t="s">
+      <c r="A255" s="103" t="s">
         <v>163</v>
       </c>
-      <c r="B255" s="84"/>
-      <c r="C255" s="84"/>
-      <c r="D255" s="84"/>
-      <c r="E255" s="84"/>
-      <c r="F255" s="84"/>
-      <c r="G255" s="84"/>
+      <c r="B255" s="103"/>
+      <c r="C255" s="103"/>
+      <c r="D255" s="103"/>
+      <c r="E255" s="103"/>
+      <c r="F255" s="103"/>
+      <c r="G255" s="103"/>
       <c r="H255" s="16"/>
       <c r="I255" s="16"/>
     </row>
     <row r="256" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A256" s="104" t="s">
+      <c r="A256" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="B256" s="105" t="s">
+      <c r="B256" s="71" t="s">
         <v>560</v>
       </c>
-      <c r="C256" s="106"/>
-      <c r="D256" s="107" t="s">
+      <c r="C256" s="72"/>
+      <c r="D256" s="116" t="s">
         <v>165</v>
       </c>
-      <c r="E256" s="105" t="s">
+      <c r="E256" s="71" t="s">
         <v>561</v>
       </c>
-      <c r="F256" s="108"/>
-      <c r="G256" s="106"/>
+      <c r="F256" s="73"/>
+      <c r="G256" s="72"/>
       <c r="H256" s="16"/>
       <c r="I256" s="16"/>
     </row>
     <row r="257" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="109"/>
-      <c r="B257" s="110" t="s">
+      <c r="A257" s="74"/>
+      <c r="B257" s="75" t="s">
         <v>562</v>
       </c>
-      <c r="C257" s="111"/>
-      <c r="D257" s="112"/>
-      <c r="E257" s="110" t="s">
+      <c r="C257" s="76"/>
+      <c r="D257" s="117"/>
+      <c r="E257" s="75" t="s">
         <v>563</v>
       </c>
-      <c r="F257" s="113"/>
-      <c r="G257" s="111"/>
+      <c r="F257" s="77"/>
+      <c r="G257" s="76"/>
       <c r="H257" s="16"/>
       <c r="I257" s="16"/>
     </row>
     <row r="258" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A258" s="109"/>
-      <c r="B258" s="110" t="s">
+      <c r="A258" s="74"/>
+      <c r="B258" s="75" t="s">
         <v>564</v>
       </c>
-      <c r="C258" s="111"/>
-      <c r="D258" s="112"/>
-      <c r="E258" s="110" t="s">
+      <c r="C258" s="76"/>
+      <c r="D258" s="117"/>
+      <c r="E258" s="75" t="s">
         <v>565</v>
       </c>
-      <c r="F258" s="113"/>
-      <c r="G258" s="111"/>
+      <c r="F258" s="77"/>
+      <c r="G258" s="76"/>
     </row>
     <row r="259" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="109"/>
-      <c r="B259" s="110" t="s">
+      <c r="A259" s="74"/>
+      <c r="B259" s="75" t="s">
         <v>566</v>
       </c>
-      <c r="C259" s="111"/>
-      <c r="D259" s="112"/>
-      <c r="E259" s="110" t="s">
+      <c r="C259" s="76"/>
+      <c r="D259" s="117"/>
+      <c r="E259" s="75" t="s">
         <v>567</v>
       </c>
-      <c r="F259" s="113"/>
-      <c r="G259" s="111"/>
+      <c r="F259" s="77"/>
+      <c r="G259" s="76"/>
     </row>
     <row r="260" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A260" s="114"/>
-      <c r="B260" s="115" t="s">
+      <c r="A260" s="78"/>
+      <c r="B260" s="79" t="s">
         <v>568</v>
       </c>
-      <c r="C260" s="116"/>
-      <c r="D260" s="117"/>
-      <c r="E260" s="115" t="s">
+      <c r="C260" s="80"/>
+      <c r="D260" s="118"/>
+      <c r="E260" s="79" t="s">
         <v>569</v>
       </c>
-      <c r="F260" s="118"/>
-      <c r="G260" s="116"/>
+      <c r="F260" s="81"/>
+      <c r="G260" s="80"/>
     </row>
     <row r="261" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A261" s="104" t="s">
+      <c r="A261" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="B261" s="105" t="s">
+      <c r="B261" s="71" t="s">
         <v>570</v>
       </c>
-      <c r="C261" s="106"/>
-      <c r="D261" s="113"/>
-      <c r="E261" s="113"/>
-      <c r="F261" s="113"/>
-      <c r="G261" s="113"/>
+      <c r="C261" s="72"/>
+      <c r="D261" s="77"/>
+      <c r="E261" s="77"/>
+      <c r="F261" s="77"/>
+      <c r="G261" s="77"/>
     </row>
     <row r="262" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A262" s="109"/>
-      <c r="B262" s="110" t="s">
+      <c r="A262" s="74"/>
+      <c r="B262" s="75" t="s">
         <v>571</v>
       </c>
-      <c r="C262" s="111"/>
-      <c r="D262" s="113"/>
-      <c r="E262" s="113"/>
-      <c r="F262" s="113"/>
-      <c r="G262" s="113"/>
+      <c r="C262" s="76"/>
+      <c r="D262" s="77"/>
+      <c r="E262" s="77"/>
+      <c r="F262" s="77"/>
+      <c r="G262" s="77"/>
     </row>
     <row r="263" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A263" s="109"/>
-      <c r="B263" s="110" t="s">
+      <c r="A263" s="74"/>
+      <c r="B263" s="75" t="s">
         <v>572</v>
       </c>
-      <c r="C263" s="111"/>
-      <c r="D263" s="113"/>
-      <c r="E263" s="113"/>
-      <c r="F263" s="113"/>
-      <c r="G263" s="113"/>
+      <c r="C263" s="76"/>
+      <c r="D263" s="77"/>
+      <c r="E263" s="77"/>
+      <c r="F263" s="77"/>
+      <c r="G263" s="77"/>
     </row>
     <row r="264" spans="1:9" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A264" s="114"/>
-      <c r="B264" s="115" t="s">
+      <c r="A264" s="78"/>
+      <c r="B264" s="79" t="s">
         <v>573</v>
       </c>
-      <c r="C264" s="116"/>
-      <c r="D264" s="113"/>
-      <c r="E264" s="113"/>
-      <c r="F264" s="113"/>
-      <c r="G264" s="113"/>
+      <c r="C264" s="80"/>
+      <c r="D264" s="77"/>
+      <c r="E264" s="77"/>
+      <c r="F264" s="77"/>
+      <c r="G264" s="77"/>
     </row>
     <row r="265" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
-      <c r="B265" s="110"/>
-      <c r="C265" s="113"/>
-      <c r="D265" s="113"/>
-      <c r="E265" s="113"/>
-      <c r="F265" s="113"/>
-      <c r="G265" s="113"/>
+      <c r="B265" s="75"/>
+      <c r="C265" s="77"/>
+      <c r="D265" s="77"/>
+      <c r="E265" s="77"/>
+      <c r="F265" s="77"/>
+      <c r="G265" s="77"/>
     </row>
     <row r="266" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="65"/>
@@ -6249,15 +6250,15 @@
       <c r="G267" s="20"/>
     </row>
     <row r="268" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A268" s="77" t="s">
+      <c r="A268" s="96" t="s">
         <v>167</v>
       </c>
-      <c r="B268" s="77"/>
-      <c r="C268" s="77"/>
-      <c r="D268" s="77"/>
-      <c r="E268" s="77"/>
-      <c r="F268" s="77"/>
-      <c r="G268" s="77"/>
+      <c r="B268" s="96"/>
+      <c r="C268" s="96"/>
+      <c r="D268" s="96"/>
+      <c r="E268" s="96"/>
+      <c r="F268" s="96"/>
+      <c r="G268" s="96"/>
     </row>
     <row r="269" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="17" t="s">
@@ -6266,32 +6267,32 @@
       <c r="B269" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="C269" s="82" t="s">
+      <c r="C269" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D269" s="82"/>
-      <c r="E269" s="82"/>
-      <c r="F269" s="82"/>
-      <c r="G269" s="82"/>
+      <c r="D269" s="101"/>
+      <c r="E269" s="101"/>
+      <c r="F269" s="101"/>
+      <c r="G269" s="101"/>
     </row>
     <row r="270" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B270" s="119" t="s">
+      <c r="B270" s="82" t="s">
         <v>440</v>
       </c>
-      <c r="C270" s="72" t="s">
+      <c r="C270" s="98" t="s">
         <v>443</v>
       </c>
-      <c r="D270" s="72"/>
-      <c r="E270" s="72"/>
-      <c r="F270" s="72"/>
-      <c r="G270" s="72"/>
+      <c r="D270" s="98"/>
+      <c r="E270" s="98"/>
+      <c r="F270" s="98"/>
+      <c r="G270" s="98"/>
     </row>
     <row r="271" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="4"/>
-      <c r="B271" s="119"/>
+      <c r="B271" s="82"/>
       <c r="C271" s="3" t="s">
         <v>441</v>
       </c>
@@ -6302,7 +6303,7 @@
     </row>
     <row r="272" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="4"/>
-      <c r="B272" s="119"/>
+      <c r="B272" s="82"/>
       <c r="C272" s="3" t="s">
         <v>442</v>
       </c>
@@ -6315,20 +6316,20 @@
       <c r="A273" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B273" s="119" t="s">
+      <c r="B273" s="82" t="s">
         <v>439</v>
       </c>
-      <c r="C273" s="72" t="s">
+      <c r="C273" s="98" t="s">
         <v>436</v>
       </c>
-      <c r="D273" s="72"/>
-      <c r="E273" s="72"/>
-      <c r="F273" s="72"/>
-      <c r="G273" s="72"/>
+      <c r="D273" s="98"/>
+      <c r="E273" s="98"/>
+      <c r="F273" s="98"/>
+      <c r="G273" s="98"/>
     </row>
     <row r="274" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="4"/>
-      <c r="B274" s="119" t="s">
+      <c r="B274" s="82" t="s">
         <v>437</v>
       </c>
       <c r="C274" s="3" t="s">
@@ -6341,13 +6342,13 @@
     </row>
     <row r="275" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="4"/>
-      <c r="B275" s="119" t="s">
+      <c r="B275" s="82" t="s">
         <v>438</v>
       </c>
-      <c r="C275" s="72" t="s">
+      <c r="C275" s="98" t="s">
         <v>435</v>
       </c>
-      <c r="D275" s="72"/>
+      <c r="D275" s="98"/>
       <c r="E275" s="3"/>
       <c r="F275" s="3"/>
       <c r="G275" s="3"/>
@@ -6356,20 +6357,20 @@
       <c r="A276" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B276" s="119" t="s">
+      <c r="B276" s="82" t="s">
         <v>433</v>
       </c>
-      <c r="C276" s="72" t="s">
+      <c r="C276" s="98" t="s">
         <v>432</v>
       </c>
-      <c r="D276" s="72"/>
-      <c r="E276" s="72"/>
-      <c r="F276" s="72"/>
-      <c r="G276" s="72"/>
+      <c r="D276" s="98"/>
+      <c r="E276" s="98"/>
+      <c r="F276" s="98"/>
+      <c r="G276" s="98"/>
     </row>
     <row r="277" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="4"/>
-      <c r="B277" s="119"/>
+      <c r="B277" s="82"/>
       <c r="C277" s="3" t="s">
         <v>546</v>
       </c>
@@ -6380,7 +6381,7 @@
     </row>
     <row r="278" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="4"/>
-      <c r="B278" s="119"/>
+      <c r="B278" s="82"/>
       <c r="C278" s="3" t="s">
         <v>431</v>
       </c>
@@ -6393,20 +6394,20 @@
       <c r="A279" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="B279" s="120" t="s">
+      <c r="B279" s="102" t="s">
         <v>430</v>
       </c>
-      <c r="C279" s="72" t="s">
+      <c r="C279" s="98" t="s">
         <v>429</v>
       </c>
-      <c r="D279" s="72"/>
-      <c r="E279" s="72"/>
-      <c r="F279" s="72"/>
-      <c r="G279" s="72"/>
+      <c r="D279" s="98"/>
+      <c r="E279" s="98"/>
+      <c r="F279" s="98"/>
+      <c r="G279" s="98"/>
     </row>
     <row r="280" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="4"/>
-      <c r="B280" s="120"/>
+      <c r="B280" s="102"/>
       <c r="C280" s="3" t="s">
         <v>547</v>
       </c>
@@ -6417,7 +6418,7 @@
     </row>
     <row r="281" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="4"/>
-      <c r="B281" s="119"/>
+      <c r="B281" s="82"/>
       <c r="C281" s="3" t="s">
         <v>428</v>
       </c>
@@ -6430,33 +6431,33 @@
       <c r="A282" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="B282" s="119" t="s">
+      <c r="B282" s="82" t="s">
         <v>424</v>
       </c>
-      <c r="C282" s="72" t="s">
+      <c r="C282" s="98" t="s">
         <v>422</v>
       </c>
-      <c r="D282" s="72"/>
-      <c r="E282" s="72"/>
-      <c r="F282" s="72"/>
-      <c r="G282" s="72"/>
+      <c r="D282" s="98"/>
+      <c r="E282" s="98"/>
+      <c r="F282" s="98"/>
+      <c r="G282" s="98"/>
     </row>
     <row r="283" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="4"/>
-      <c r="B283" s="119" t="s">
+      <c r="B283" s="82" t="s">
         <v>423</v>
       </c>
-      <c r="C283" s="72" t="s">
+      <c r="C283" s="98" t="s">
         <v>427</v>
       </c>
-      <c r="D283" s="72"/>
+      <c r="D283" s="98"/>
       <c r="E283" s="3"/>
       <c r="F283" s="3"/>
       <c r="G283" s="3"/>
     </row>
     <row r="284" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="4"/>
-      <c r="B284" s="119" t="s">
+      <c r="B284" s="82" t="s">
         <v>425</v>
       </c>
       <c r="C284" s="3"/>
@@ -6467,7 +6468,7 @@
     </row>
     <row r="285" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="66"/>
-      <c r="B285" s="121" t="s">
+      <c r="B285" s="83" t="s">
         <v>426</v>
       </c>
       <c r="C285" s="66"/>
@@ -6477,15 +6478,15 @@
       <c r="G285" s="66"/>
     </row>
     <row r="286" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="77" t="s">
+      <c r="A286" s="96" t="s">
         <v>232</v>
       </c>
-      <c r="B286" s="77"/>
-      <c r="C286" s="77"/>
-      <c r="D286" s="77"/>
-      <c r="E286" s="77"/>
-      <c r="F286" s="77"/>
-      <c r="G286" s="77"/>
+      <c r="B286" s="96"/>
+      <c r="C286" s="96"/>
+      <c r="D286" s="96"/>
+      <c r="E286" s="96"/>
+      <c r="F286" s="96"/>
+      <c r="G286" s="96"/>
       <c r="H286" s="10"/>
     </row>
     <row r="287" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6495,13 +6496,13 @@
       <c r="B287" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="C287" s="85" t="s">
+      <c r="C287" s="100" t="s">
         <v>177</v>
       </c>
-      <c r="D287" s="85"/>
-      <c r="E287" s="85"/>
-      <c r="F287" s="85"/>
-      <c r="G287" s="85"/>
+      <c r="D287" s="100"/>
+      <c r="E287" s="100"/>
+      <c r="F287" s="100"/>
+      <c r="G287" s="100"/>
       <c r="H287" s="11"/>
     </row>
     <row r="288" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6511,13 +6512,13 @@
       <c r="B288" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="C288" s="83" t="s">
+      <c r="C288" s="99" t="s">
         <v>196</v>
       </c>
-      <c r="D288" s="83"/>
-      <c r="E288" s="83"/>
-      <c r="F288" s="83"/>
-      <c r="G288" s="83"/>
+      <c r="D288" s="99"/>
+      <c r="E288" s="99"/>
+      <c r="F288" s="99"/>
+      <c r="G288" s="99"/>
       <c r="H288" s="14"/>
     </row>
     <row r="289" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6527,13 +6528,13 @@
       <c r="B289" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="C289" s="83" t="s">
+      <c r="C289" s="99" t="s">
         <v>197</v>
       </c>
-      <c r="D289" s="83"/>
-      <c r="E289" s="83"/>
-      <c r="F289" s="83"/>
-      <c r="G289" s="83"/>
+      <c r="D289" s="99"/>
+      <c r="E289" s="99"/>
+      <c r="F289" s="99"/>
+      <c r="G289" s="99"/>
       <c r="H289" s="14"/>
     </row>
     <row r="290" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6543,13 +6544,13 @@
       <c r="B290" s="14" t="s">
         <v>183</v>
       </c>
-      <c r="C290" s="83" t="s">
+      <c r="C290" s="99" t="s">
         <v>199</v>
       </c>
-      <c r="D290" s="83"/>
-      <c r="E290" s="83"/>
-      <c r="F290" s="83"/>
-      <c r="G290" s="83"/>
+      <c r="D290" s="99"/>
+      <c r="E290" s="99"/>
+      <c r="F290" s="99"/>
+      <c r="G290" s="99"/>
       <c r="H290" s="14"/>
     </row>
     <row r="291" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6559,13 +6560,13 @@
       <c r="B291" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="C291" s="83" t="s">
+      <c r="C291" s="99" t="s">
         <v>198</v>
       </c>
-      <c r="D291" s="83"/>
-      <c r="E291" s="83"/>
-      <c r="F291" s="83"/>
-      <c r="G291" s="83"/>
+      <c r="D291" s="99"/>
+      <c r="E291" s="99"/>
+      <c r="F291" s="99"/>
+      <c r="G291" s="99"/>
       <c r="H291" s="14"/>
     </row>
     <row r="292" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6575,13 +6576,13 @@
       <c r="B292" s="14" t="s">
         <v>187</v>
       </c>
-      <c r="C292" s="83" t="s">
+      <c r="C292" s="99" t="s">
         <v>200</v>
       </c>
-      <c r="D292" s="83"/>
-      <c r="E292" s="83"/>
-      <c r="F292" s="83"/>
-      <c r="G292" s="83"/>
+      <c r="D292" s="99"/>
+      <c r="E292" s="99"/>
+      <c r="F292" s="99"/>
+      <c r="G292" s="99"/>
       <c r="H292" s="14"/>
     </row>
     <row r="293" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6591,13 +6592,13 @@
       <c r="B293" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="C293" s="83" t="s">
+      <c r="C293" s="99" t="s">
         <v>201</v>
       </c>
-      <c r="D293" s="83"/>
-      <c r="E293" s="83"/>
-      <c r="F293" s="83"/>
-      <c r="G293" s="83"/>
+      <c r="D293" s="99"/>
+      <c r="E293" s="99"/>
+      <c r="F293" s="99"/>
+      <c r="G293" s="99"/>
       <c r="H293" s="14"/>
     </row>
     <row r="294" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6607,13 +6608,13 @@
       <c r="B294" s="14" t="s">
         <v>191</v>
       </c>
-      <c r="C294" s="83" t="s">
+      <c r="C294" s="99" t="s">
         <v>202</v>
       </c>
-      <c r="D294" s="83"/>
-      <c r="E294" s="83"/>
-      <c r="F294" s="83"/>
-      <c r="G294" s="83"/>
+      <c r="D294" s="99"/>
+      <c r="E294" s="99"/>
+      <c r="F294" s="99"/>
+      <c r="G294" s="99"/>
       <c r="H294" s="14"/>
     </row>
     <row r="295" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6623,13 +6624,13 @@
       <c r="B295" s="14" t="s">
         <v>193</v>
       </c>
-      <c r="C295" s="83" t="s">
+      <c r="C295" s="99" t="s">
         <v>203</v>
       </c>
-      <c r="D295" s="83"/>
-      <c r="E295" s="83"/>
-      <c r="F295" s="83"/>
-      <c r="G295" s="83"/>
+      <c r="D295" s="99"/>
+      <c r="E295" s="99"/>
+      <c r="F295" s="99"/>
+      <c r="G295" s="99"/>
       <c r="H295" s="14"/>
     </row>
     <row r="296" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6639,13 +6640,13 @@
       <c r="B296" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C296" s="83" t="s">
+      <c r="C296" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="D296" s="83"/>
-      <c r="E296" s="83"/>
-      <c r="F296" s="83"/>
-      <c r="G296" s="83"/>
+      <c r="D296" s="99"/>
+      <c r="E296" s="99"/>
+      <c r="F296" s="99"/>
+      <c r="G296" s="99"/>
       <c r="H296" s="14"/>
     </row>
     <row r="297" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -6665,15 +6666,15 @@
       <c r="B300" s="8"/>
     </row>
     <row r="301" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A301" s="77" t="s">
+      <c r="A301" s="96" t="s">
         <v>231</v>
       </c>
-      <c r="B301" s="77"/>
-      <c r="C301" s="77"/>
-      <c r="D301" s="77"/>
-      <c r="E301" s="77"/>
-      <c r="F301" s="77"/>
-      <c r="G301" s="77"/>
+      <c r="B301" s="96"/>
+      <c r="C301" s="96"/>
+      <c r="D301" s="96"/>
+      <c r="E301" s="96"/>
+      <c r="F301" s="96"/>
+      <c r="G301" s="96"/>
     </row>
     <row r="302" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="17" t="s">
@@ -6682,13 +6683,13 @@
       <c r="B302" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C302" s="82" t="s">
+      <c r="C302" s="101" t="s">
         <v>4</v>
       </c>
-      <c r="D302" s="82"/>
-      <c r="E302" s="82"/>
-      <c r="F302" s="82"/>
-      <c r="G302" s="82"/>
+      <c r="D302" s="101"/>
+      <c r="E302" s="101"/>
+      <c r="F302" s="101"/>
+      <c r="G302" s="101"/>
     </row>
     <row r="303" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="13" t="s">
@@ -6697,21 +6698,21 @@
       <c r="B303" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C303" s="83" t="s">
+      <c r="C303" s="99" t="s">
         <v>205</v>
       </c>
-      <c r="D303" s="83"/>
-      <c r="E303" s="83"/>
-      <c r="F303" s="83"/>
-      <c r="G303" s="83"/>
+      <c r="D303" s="99"/>
+      <c r="E303" s="99"/>
+      <c r="F303" s="99"/>
+      <c r="G303" s="99"/>
     </row>
     <row r="304" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="13"/>
       <c r="B304" s="14"/>
-      <c r="C304" s="83" t="s">
+      <c r="C304" s="99" t="s">
         <v>420</v>
       </c>
-      <c r="D304" s="83"/>
+      <c r="D304" s="99"/>
       <c r="E304" s="12"/>
       <c r="F304" s="12"/>
       <c r="G304" s="12"/>
@@ -6723,21 +6724,21 @@
       <c r="B305" s="14" t="s">
         <v>208</v>
       </c>
-      <c r="C305" s="83" t="s">
+      <c r="C305" s="99" t="s">
         <v>207</v>
       </c>
-      <c r="D305" s="83"/>
-      <c r="E305" s="83"/>
-      <c r="F305" s="83"/>
-      <c r="G305" s="83"/>
+      <c r="D305" s="99"/>
+      <c r="E305" s="99"/>
+      <c r="F305" s="99"/>
+      <c r="G305" s="99"/>
     </row>
     <row r="306" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="13"/>
       <c r="B306" s="14"/>
-      <c r="C306" s="83" t="s">
+      <c r="C306" s="99" t="s">
         <v>245</v>
       </c>
-      <c r="D306" s="83"/>
+      <c r="D306" s="99"/>
       <c r="E306" s="12"/>
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
@@ -6745,10 +6746,10 @@
     <row r="307" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="13"/>
       <c r="B307" s="14"/>
-      <c r="C307" s="83" t="s">
+      <c r="C307" s="99" t="s">
         <v>419</v>
       </c>
-      <c r="D307" s="83"/>
+      <c r="D307" s="99"/>
       <c r="E307" s="12"/>
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
@@ -6760,21 +6761,21 @@
       <c r="B308" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C308" s="83" t="s">
+      <c r="C308" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="D308" s="83"/>
-      <c r="E308" s="83"/>
-      <c r="F308" s="83"/>
-      <c r="G308" s="83"/>
+      <c r="D308" s="99"/>
+      <c r="E308" s="99"/>
+      <c r="F308" s="99"/>
+      <c r="G308" s="99"/>
     </row>
     <row r="309" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="13"/>
       <c r="B309" s="14"/>
-      <c r="C309" s="83" t="s">
+      <c r="C309" s="99" t="s">
         <v>418</v>
       </c>
-      <c r="D309" s="83"/>
+      <c r="D309" s="99"/>
       <c r="E309" s="12"/>
       <c r="F309" s="12"/>
       <c r="G309" s="12"/>
@@ -6786,13 +6787,13 @@
       <c r="B310" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="C310" s="83" t="s">
+      <c r="C310" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="D310" s="83"/>
-      <c r="E310" s="83"/>
-      <c r="F310" s="83"/>
-      <c r="G310" s="83"/>
+      <c r="D310" s="99"/>
+      <c r="E310" s="99"/>
+      <c r="F310" s="99"/>
+      <c r="G310" s="99"/>
     </row>
     <row r="311" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="13" t="s">
@@ -6801,21 +6802,21 @@
       <c r="B311" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C311" s="83" t="s">
+      <c r="C311" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="D311" s="83"/>
-      <c r="E311" s="83"/>
-      <c r="F311" s="83"/>
-      <c r="G311" s="83"/>
+      <c r="D311" s="99"/>
+      <c r="E311" s="99"/>
+      <c r="F311" s="99"/>
+      <c r="G311" s="99"/>
     </row>
     <row r="312" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="13"/>
       <c r="B312" s="14"/>
-      <c r="C312" s="83" t="s">
+      <c r="C312" s="99" t="s">
         <v>280</v>
       </c>
-      <c r="D312" s="83"/>
+      <c r="D312" s="99"/>
       <c r="E312" s="12"/>
       <c r="F312" s="12"/>
       <c r="G312" s="12"/>
@@ -6827,13 +6828,13 @@
       <c r="B313" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="C313" s="83" t="s">
+      <c r="C313" s="99" t="s">
         <v>215</v>
       </c>
-      <c r="D313" s="83"/>
-      <c r="E313" s="83"/>
-      <c r="F313" s="83"/>
-      <c r="G313" s="83"/>
+      <c r="D313" s="99"/>
+      <c r="E313" s="99"/>
+      <c r="F313" s="99"/>
+      <c r="G313" s="99"/>
     </row>
     <row r="314" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="13" t="s">
@@ -6842,13 +6843,13 @@
       <c r="B314" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="C314" s="83" t="s">
+      <c r="C314" s="99" t="s">
         <v>217</v>
       </c>
-      <c r="D314" s="83"/>
-      <c r="E314" s="83"/>
-      <c r="F314" s="83"/>
-      <c r="G314" s="83"/>
+      <c r="D314" s="99"/>
+      <c r="E314" s="99"/>
+      <c r="F314" s="99"/>
+      <c r="G314" s="99"/>
     </row>
     <row r="315" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="13" t="s">
@@ -6857,21 +6858,21 @@
       <c r="B315" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="C315" s="83" t="s">
+      <c r="C315" s="99" t="s">
         <v>417</v>
       </c>
-      <c r="D315" s="83"/>
-      <c r="E315" s="83"/>
-      <c r="F315" s="83"/>
-      <c r="G315" s="83"/>
+      <c r="D315" s="99"/>
+      <c r="E315" s="99"/>
+      <c r="F315" s="99"/>
+      <c r="G315" s="99"/>
     </row>
     <row r="316" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="13"/>
       <c r="B316" s="14"/>
-      <c r="C316" s="83" t="s">
+      <c r="C316" s="99" t="s">
         <v>421</v>
       </c>
-      <c r="D316" s="83"/>
+      <c r="D316" s="99"/>
       <c r="E316" s="12"/>
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
@@ -6909,15 +6910,15 @@
       <c r="B322" s="8"/>
     </row>
     <row r="323" spans="1:7" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A323" s="92" t="s">
+      <c r="A323" s="84" t="s">
         <v>292</v>
       </c>
-      <c r="B323" s="93"/>
-      <c r="C323" s="93"/>
-      <c r="D323" s="93"/>
-      <c r="E323" s="93"/>
-      <c r="F323" s="93"/>
-      <c r="G323" s="94"/>
+      <c r="B323" s="85"/>
+      <c r="C323" s="85"/>
+      <c r="D323" s="85"/>
+      <c r="E323" s="85"/>
+      <c r="F323" s="85"/>
+      <c r="G323" s="86"/>
     </row>
     <row r="324" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="59" t="s">
@@ -6926,15 +6927,15 @@
       <c r="B324" s="59" t="s">
         <v>295</v>
       </c>
-      <c r="C324" s="95" t="s">
+      <c r="C324" s="93" t="s">
         <v>298</v>
       </c>
-      <c r="D324" s="97"/>
-      <c r="E324" s="95" t="s">
+      <c r="D324" s="95"/>
+      <c r="E324" s="93" t="s">
         <v>301</v>
       </c>
-      <c r="F324" s="96"/>
-      <c r="G324" s="97"/>
+      <c r="F324" s="94"/>
+      <c r="G324" s="95"/>
     </row>
     <row r="325" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="44" t="s">
@@ -7036,6 +7037,248 @@
     </row>
   </sheetData>
   <mergeCells count="266">
+    <mergeCell ref="B252:B254"/>
+    <mergeCell ref="A252:A254"/>
+    <mergeCell ref="C252:G252"/>
+    <mergeCell ref="C253:G253"/>
+    <mergeCell ref="C254:G254"/>
+    <mergeCell ref="C25:G25"/>
+    <mergeCell ref="C26:G26"/>
+    <mergeCell ref="C27:G27"/>
+    <mergeCell ref="C28:G28"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B56:B57"/>
+    <mergeCell ref="C54:G54"/>
+    <mergeCell ref="C56:G56"/>
+    <mergeCell ref="C55:G55"/>
+    <mergeCell ref="C57:G57"/>
+    <mergeCell ref="C250:G250"/>
+    <mergeCell ref="C251:G251"/>
+    <mergeCell ref="C236:G236"/>
+    <mergeCell ref="C237:G237"/>
+    <mergeCell ref="C238:G238"/>
+    <mergeCell ref="C239:G239"/>
+    <mergeCell ref="C243:G243"/>
+    <mergeCell ref="C246:G246"/>
+    <mergeCell ref="C247:G247"/>
+    <mergeCell ref="A232:A233"/>
+    <mergeCell ref="B232:B233"/>
+    <mergeCell ref="C229:G229"/>
+    <mergeCell ref="C230:G230"/>
+    <mergeCell ref="C231:G231"/>
+    <mergeCell ref="C232:G232"/>
+    <mergeCell ref="C233:G233"/>
+    <mergeCell ref="D256:D260"/>
+    <mergeCell ref="C141:G141"/>
+    <mergeCell ref="C143:G143"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:G52"/>
+    <mergeCell ref="C53:G53"/>
+    <mergeCell ref="A61:G61"/>
+    <mergeCell ref="C62:G62"/>
+    <mergeCell ref="C63:G63"/>
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C65:G65"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C67:G67"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C102:G102"/>
+    <mergeCell ref="C104:G104"/>
+    <mergeCell ref="C106:G106"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="C110:G110"/>
+    <mergeCell ref="C129:G129"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="C244:G244"/>
+    <mergeCell ref="C245:G245"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="C107:D107"/>
+    <mergeCell ref="C86:D86"/>
+    <mergeCell ref="C90:D90"/>
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C94:D94"/>
+    <mergeCell ref="C97:D97"/>
+    <mergeCell ref="C99:D99"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="C98:G98"/>
+    <mergeCell ref="C45:G45"/>
+    <mergeCell ref="C46:G46"/>
+    <mergeCell ref="C47:G47"/>
+    <mergeCell ref="C48:G48"/>
+    <mergeCell ref="C49:G49"/>
+    <mergeCell ref="C50:G50"/>
+    <mergeCell ref="C51:G51"/>
+    <mergeCell ref="C79:G79"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="C83:G83"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C31:G31"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="C34:G34"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="A40:G40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="C43:G43"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="C85:G85"/>
+    <mergeCell ref="C87:G87"/>
+    <mergeCell ref="C89:G89"/>
+    <mergeCell ref="C91:G91"/>
+    <mergeCell ref="C93:G93"/>
+    <mergeCell ref="C95:G95"/>
+    <mergeCell ref="C75:G75"/>
+    <mergeCell ref="C77:G77"/>
+    <mergeCell ref="A73:G73"/>
+    <mergeCell ref="C74:G74"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C84:D84"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="C7:G7"/>
+    <mergeCell ref="C9:G9"/>
+    <mergeCell ref="C11:G11"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C44:G44"/>
+    <mergeCell ref="C133:G133"/>
+    <mergeCell ref="C134:G134"/>
+    <mergeCell ref="A121:G121"/>
+    <mergeCell ref="C122:G122"/>
+    <mergeCell ref="C123:G123"/>
+    <mergeCell ref="C124:G124"/>
+    <mergeCell ref="C125:G125"/>
+    <mergeCell ref="C127:G127"/>
+    <mergeCell ref="C146:G146"/>
+    <mergeCell ref="C126:D126"/>
+    <mergeCell ref="C131:G131"/>
+    <mergeCell ref="C132:G132"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="C148:G148"/>
+    <mergeCell ref="C150:G150"/>
+    <mergeCell ref="C151:G151"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="C136:G136"/>
+    <mergeCell ref="C138:G138"/>
+    <mergeCell ref="C140:G140"/>
+    <mergeCell ref="C144:G144"/>
+    <mergeCell ref="C145:G145"/>
+    <mergeCell ref="C139:D139"/>
+    <mergeCell ref="C153:G153"/>
+    <mergeCell ref="C154:G154"/>
+    <mergeCell ref="C186:G186"/>
+    <mergeCell ref="C189:G189"/>
+    <mergeCell ref="C191:G191"/>
+    <mergeCell ref="C197:G197"/>
+    <mergeCell ref="C200:G200"/>
+    <mergeCell ref="A181:G181"/>
+    <mergeCell ref="C182:G182"/>
+    <mergeCell ref="C183:G183"/>
+    <mergeCell ref="C195:D195"/>
+    <mergeCell ref="C196:D196"/>
+    <mergeCell ref="C192:D192"/>
+    <mergeCell ref="C193:D193"/>
+    <mergeCell ref="C194:D194"/>
+    <mergeCell ref="C190:D190"/>
+    <mergeCell ref="C187:D187"/>
+    <mergeCell ref="C184:D184"/>
+    <mergeCell ref="C185:D185"/>
+    <mergeCell ref="A155:G155"/>
+    <mergeCell ref="D156:G156"/>
+    <mergeCell ref="C221:G221"/>
+    <mergeCell ref="C224:G224"/>
+    <mergeCell ref="C227:G227"/>
+    <mergeCell ref="A255:G255"/>
+    <mergeCell ref="C203:G203"/>
+    <mergeCell ref="C206:G206"/>
+    <mergeCell ref="C209:G209"/>
+    <mergeCell ref="C212:G212"/>
+    <mergeCell ref="C215:G215"/>
+    <mergeCell ref="C218:G218"/>
+    <mergeCell ref="A234:A236"/>
+    <mergeCell ref="B234:B236"/>
+    <mergeCell ref="A237:A239"/>
+    <mergeCell ref="B237:B239"/>
+    <mergeCell ref="A246:A248"/>
+    <mergeCell ref="B246:B248"/>
+    <mergeCell ref="A249:A251"/>
+    <mergeCell ref="B249:B251"/>
+    <mergeCell ref="C234:G234"/>
+    <mergeCell ref="C235:G235"/>
+    <mergeCell ref="A229:A231"/>
+    <mergeCell ref="B229:B231"/>
+    <mergeCell ref="C248:G248"/>
+    <mergeCell ref="C249:G249"/>
+    <mergeCell ref="C305:G305"/>
+    <mergeCell ref="C308:G308"/>
+    <mergeCell ref="C310:G310"/>
+    <mergeCell ref="C311:G311"/>
+    <mergeCell ref="C291:G291"/>
+    <mergeCell ref="C292:G292"/>
+    <mergeCell ref="C293:G293"/>
+    <mergeCell ref="C294:G294"/>
+    <mergeCell ref="C295:G295"/>
+    <mergeCell ref="C296:G296"/>
+    <mergeCell ref="C283:D283"/>
+    <mergeCell ref="C275:D275"/>
+    <mergeCell ref="C228:D228"/>
+    <mergeCell ref="C226:D226"/>
+    <mergeCell ref="C313:G313"/>
+    <mergeCell ref="C314:G314"/>
+    <mergeCell ref="C315:G315"/>
+    <mergeCell ref="C316:D316"/>
+    <mergeCell ref="C279:G279"/>
+    <mergeCell ref="C282:G282"/>
+    <mergeCell ref="C287:G287"/>
+    <mergeCell ref="C288:G288"/>
+    <mergeCell ref="C289:G289"/>
+    <mergeCell ref="C290:G290"/>
+    <mergeCell ref="A268:G268"/>
+    <mergeCell ref="C269:G269"/>
+    <mergeCell ref="C270:G270"/>
+    <mergeCell ref="C273:G273"/>
+    <mergeCell ref="C276:G276"/>
+    <mergeCell ref="B279:B280"/>
+    <mergeCell ref="A301:G301"/>
+    <mergeCell ref="A286:G286"/>
+    <mergeCell ref="C302:G302"/>
+    <mergeCell ref="C303:G303"/>
     <mergeCell ref="D165:G165"/>
     <mergeCell ref="D170:D171"/>
     <mergeCell ref="E170:G171"/>
@@ -7060,250 +7303,20 @@
     <mergeCell ref="C306:D306"/>
     <mergeCell ref="C307:D307"/>
     <mergeCell ref="C304:D304"/>
-    <mergeCell ref="C283:D283"/>
-    <mergeCell ref="C275:D275"/>
-    <mergeCell ref="C228:D228"/>
-    <mergeCell ref="C226:D226"/>
-    <mergeCell ref="C313:G313"/>
-    <mergeCell ref="C314:G314"/>
-    <mergeCell ref="C315:G315"/>
-    <mergeCell ref="C316:D316"/>
-    <mergeCell ref="C279:G279"/>
-    <mergeCell ref="C282:G282"/>
-    <mergeCell ref="C287:G287"/>
-    <mergeCell ref="C288:G288"/>
-    <mergeCell ref="C289:G289"/>
-    <mergeCell ref="C290:G290"/>
-    <mergeCell ref="A268:G268"/>
-    <mergeCell ref="C269:G269"/>
-    <mergeCell ref="C270:G270"/>
-    <mergeCell ref="C273:G273"/>
-    <mergeCell ref="C276:G276"/>
-    <mergeCell ref="B279:B280"/>
-    <mergeCell ref="A301:G301"/>
-    <mergeCell ref="A286:G286"/>
-    <mergeCell ref="C302:G302"/>
-    <mergeCell ref="C303:G303"/>
-    <mergeCell ref="C305:G305"/>
-    <mergeCell ref="C308:G308"/>
-    <mergeCell ref="C310:G310"/>
-    <mergeCell ref="C311:G311"/>
-    <mergeCell ref="C291:G291"/>
-    <mergeCell ref="C292:G292"/>
-    <mergeCell ref="C293:G293"/>
-    <mergeCell ref="C294:G294"/>
-    <mergeCell ref="C295:G295"/>
-    <mergeCell ref="C296:G296"/>
-    <mergeCell ref="C221:G221"/>
-    <mergeCell ref="C224:G224"/>
-    <mergeCell ref="C227:G227"/>
-    <mergeCell ref="A255:G255"/>
-    <mergeCell ref="C203:G203"/>
-    <mergeCell ref="C206:G206"/>
-    <mergeCell ref="C209:G209"/>
-    <mergeCell ref="C212:G212"/>
-    <mergeCell ref="C215:G215"/>
-    <mergeCell ref="C218:G218"/>
-    <mergeCell ref="A234:A236"/>
-    <mergeCell ref="B234:B236"/>
-    <mergeCell ref="A237:A239"/>
-    <mergeCell ref="B237:B239"/>
-    <mergeCell ref="A246:A248"/>
-    <mergeCell ref="B246:B248"/>
-    <mergeCell ref="A249:A251"/>
-    <mergeCell ref="B249:B251"/>
-    <mergeCell ref="C234:G234"/>
-    <mergeCell ref="C235:G235"/>
-    <mergeCell ref="A229:A231"/>
-    <mergeCell ref="B229:B231"/>
-    <mergeCell ref="C153:G153"/>
-    <mergeCell ref="C154:G154"/>
-    <mergeCell ref="C186:G186"/>
-    <mergeCell ref="C189:G189"/>
-    <mergeCell ref="C191:G191"/>
-    <mergeCell ref="C197:G197"/>
-    <mergeCell ref="C200:G200"/>
-    <mergeCell ref="A181:G181"/>
-    <mergeCell ref="C182:G182"/>
-    <mergeCell ref="C183:G183"/>
-    <mergeCell ref="C195:D195"/>
-    <mergeCell ref="C196:D196"/>
-    <mergeCell ref="C192:D192"/>
-    <mergeCell ref="C193:D193"/>
-    <mergeCell ref="C194:D194"/>
-    <mergeCell ref="C190:D190"/>
-    <mergeCell ref="C187:D187"/>
-    <mergeCell ref="C184:D184"/>
-    <mergeCell ref="C185:D185"/>
-    <mergeCell ref="A155:G155"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="C147:G147"/>
-    <mergeCell ref="C148:G148"/>
-    <mergeCell ref="C150:G150"/>
-    <mergeCell ref="C151:G151"/>
-    <mergeCell ref="C152:G152"/>
-    <mergeCell ref="C135:G135"/>
-    <mergeCell ref="C136:G136"/>
-    <mergeCell ref="C138:G138"/>
-    <mergeCell ref="C140:G140"/>
-    <mergeCell ref="C144:G144"/>
-    <mergeCell ref="C145:G145"/>
-    <mergeCell ref="C139:D139"/>
-    <mergeCell ref="C133:G133"/>
-    <mergeCell ref="C134:G134"/>
-    <mergeCell ref="A121:G121"/>
-    <mergeCell ref="C122:G122"/>
-    <mergeCell ref="C123:G123"/>
-    <mergeCell ref="C124:G124"/>
-    <mergeCell ref="C125:G125"/>
-    <mergeCell ref="C127:G127"/>
-    <mergeCell ref="C146:G146"/>
-    <mergeCell ref="C126:D126"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="C7:G7"/>
-    <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="C29:G29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C44:G44"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C87:G87"/>
-    <mergeCell ref="C89:G89"/>
-    <mergeCell ref="C91:G91"/>
-    <mergeCell ref="C93:G93"/>
-    <mergeCell ref="C95:G95"/>
-    <mergeCell ref="C75:G75"/>
-    <mergeCell ref="C77:G77"/>
-    <mergeCell ref="A73:G73"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="C84:D84"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C31:G31"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="A40:G40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C131:G131"/>
-    <mergeCell ref="C132:G132"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C45:G45"/>
-    <mergeCell ref="C46:G46"/>
-    <mergeCell ref="C47:G47"/>
-    <mergeCell ref="C48:G48"/>
-    <mergeCell ref="C49:G49"/>
-    <mergeCell ref="C50:G50"/>
-    <mergeCell ref="C51:G51"/>
-    <mergeCell ref="C79:G79"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="C83:G83"/>
-    <mergeCell ref="C96:G96"/>
-    <mergeCell ref="C111:D111"/>
-    <mergeCell ref="C107:D107"/>
-    <mergeCell ref="C86:D86"/>
-    <mergeCell ref="C90:D90"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C94:D94"/>
-    <mergeCell ref="C97:D97"/>
-    <mergeCell ref="C99:D99"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="C248:G248"/>
-    <mergeCell ref="C249:G249"/>
-    <mergeCell ref="D256:D260"/>
-    <mergeCell ref="C141:G141"/>
-    <mergeCell ref="C143:G143"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:G52"/>
-    <mergeCell ref="C53:G53"/>
-    <mergeCell ref="A61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
-    <mergeCell ref="C65:G65"/>
-    <mergeCell ref="C66:G66"/>
-    <mergeCell ref="C67:G67"/>
-    <mergeCell ref="C100:G100"/>
-    <mergeCell ref="C102:G102"/>
-    <mergeCell ref="C104:G104"/>
-    <mergeCell ref="C106:G106"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C129:G129"/>
-    <mergeCell ref="C130:G130"/>
-    <mergeCell ref="C244:G244"/>
-    <mergeCell ref="C245:G245"/>
-    <mergeCell ref="C246:G246"/>
-    <mergeCell ref="C247:G247"/>
-    <mergeCell ref="A232:A233"/>
-    <mergeCell ref="B232:B233"/>
-    <mergeCell ref="C229:G229"/>
-    <mergeCell ref="C230:G230"/>
-    <mergeCell ref="C231:G231"/>
-    <mergeCell ref="C232:G232"/>
-    <mergeCell ref="C233:G233"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="B252:B254"/>
-    <mergeCell ref="A252:A254"/>
-    <mergeCell ref="C252:G252"/>
-    <mergeCell ref="C253:G253"/>
-    <mergeCell ref="C254:G254"/>
-    <mergeCell ref="C25:G25"/>
-    <mergeCell ref="C26:G26"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C28:G28"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C54:G54"/>
-    <mergeCell ref="C56:G56"/>
-    <mergeCell ref="C55:G55"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C250:G250"/>
-    <mergeCell ref="C251:G251"/>
-    <mergeCell ref="C236:G236"/>
-    <mergeCell ref="C237:G237"/>
-    <mergeCell ref="C238:G238"/>
-    <mergeCell ref="C239:G239"/>
-    <mergeCell ref="C243:G243"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.23622047244094491" bottom="0.23622047244094491" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="8" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58EAA86A-99F5-4B12-BD87-775EB0AB1047}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>